--- a/all_videos_analysis.xlsx
+++ b/all_videos_analysis.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiftof95/Documents/LINQIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{369956C5-A8CD-D342-9DA9-17739B746ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BAAB5E-086D-9A40-8037-285722DAB6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20760" yWindow="620" windowWidth="17640" windowHeight="19420" activeTab="1" xr2:uid="{675321E7-369E-BC4C-9DC4-8B965F5800DF}"/>
-    <workbookView xWindow="0" yWindow="620" windowWidth="22340" windowHeight="20980" xr2:uid="{5B4943CD-FA3A-1541-BF74-C497757AFF86}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="34840" windowHeight="19380" activeTab="2" xr2:uid="{675321E7-369E-BC4C-9DC4-8B965F5800DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="All Videos Analyses" sheetId="1" r:id="rId1"/>
-    <sheet name="Video Evaluation" sheetId="2" r:id="rId2"/>
-    <sheet name="Scoring System" sheetId="3" r:id="rId3"/>
+    <sheet name="Video Analyses (Old Prompt)" sheetId="1" r:id="rId1"/>
+    <sheet name="Testing 4 Vid Analyses" sheetId="6" r:id="rId2"/>
+    <sheet name="Testing 6 Vid Analyses" sheetId="7" r:id="rId3"/>
+    <sheet name="Video Evaluation (Old Prompt)" sheetId="2" r:id="rId4"/>
+    <sheet name="Scoring System" sheetId="3" r:id="rId5"/>
+    <sheet name="Issues to Note" sheetId="4" r:id="rId6"/>
+    <sheet name="Prompt Texts" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="636">
   <si>
     <t>video_name</t>
   </si>
@@ -96,34 +99,10 @@
     <t>transcript</t>
   </si>
   <si>
-    <t>Auto Repair.mp4</t>
-  </si>
-  <si>
-    <t>https://linqia-video-analyser-bucket.s3.us-east-2.amazonaws.com/Videos%20for%20Analysis/Auto%20Repair.mp4</t>
-  </si>
-  <si>
-    <t>The video shows mechanics dismantling, repairing, and reassembling a heavily damaged car. They remove parts like the bumper, radiator, wheels, exhaust, and interior components. They also perform welding, grinding, sanding, and painting. Finally, they reassemble the car, including reinstalling the headlights, doors, interior panels, seats, and wheels, before the car is shown driving.</t>
-  </si>
-  <si>
-    <t>Cars</t>
-  </si>
-  <si>
-    <t>Tutorials</t>
-  </si>
-  <si>
     <t>Creator-centric</t>
   </si>
   <si>
-    <t>Creator, Vehicles, Technology, Props</t>
-  </si>
-  <si>
     <t>Family-friendly</t>
-  </si>
-  <si>
-    <t>Exclusive brand partnership</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz, AMG</t>
   </si>
   <si>
     <t>Beauty 2.mp4</t>
@@ -184,34 +163,10 @@
     <t>I'mma sit back with a blind. You put my hand in the cough. Can't touch.</t>
   </si>
   <si>
-    <t>Budget Travel.mp4</t>
-  </si>
-  <si>
-    <t>https://linqia-video-analyser-bucket.s3.us-east-2.amazonaws.com/Videos%20for%20Analysis/Budget%20Travel.mp4</t>
-  </si>
-  <si>
-    <t>The creator explains how to turn $80 per week into a European vacation, demonstrating how to find affordable flights and hotels. They use an example of a trip to Paris in April for two passengers, showing the flight search process on an airline app and hotel booking on Hotels.com. The video also touches on transportation costs in Paris, suggesting public transport passes over Ubers and providing budget estimates for food.</t>
-  </si>
-  <si>
-    <t>Travel, Budget Travel</t>
-  </si>
-  <si>
     <t>Creator-centric, Face only</t>
   </si>
   <si>
-    <t>how I turned $80/week into a European vacation (multiple times!), $80 x 52 weeks = $4,160 a year, March-April, September-October, CMH, PAR, Columbus, OH, Paris Area Airports, France, Thu, Apr 16 - Thu, Apr 23, 2 Passengers, Shop With Miles, My Dates Are Flexible, Exclude Max, Refundable, Advanced Search, Best Fares For, Delta Main Basic, Find Flights, DL5650, DL264, 12h 15m, 6:00 PM, 12:15 PM, Thu, Apr 16, CMH, 1 Stop | JFK, CDG, Operated by Republic Airways Delta Connection, Delta Main, Round Trip From, Details, Seats, DL1522, DL82, 11h 46m, 12:29 PM, 6:15 AM, Delta Main, Round Trip From, $523, $713, Main Basic, All the Essentials, FREE, Cancel for partial eCredit, changes allowed for a fee, Board in Zone 8, limited overhead bin space¬≤, Ineligible to earn miles¬≥, Ineligible for upgrades, Seat(s) assigned after flight cannot change seat‚Åµ, View All Restrictions, Accept, Round Trip From, $523, Select, Main, Comfort, Premium Select, Delta One‚Å¥, Compare Our Cabin Experiences, Lowest Fare, $523, $749, Experience selection applies to your trip., View Terms and Conditions, Review and Pay, CHECK IN, CHECK OUT, After 3:00 PM, Before 12:00 PM, 16 Apr 2026, 23 Apr 2026, 7 nights, Room details, Dalila Cosy Double room, Prepaid Rate, US$1,030.52, US$927.47, Show details, Total saving, US$103.05, Total, US$927.47, (VAT and taxes included), Pay now, US$927.47, (VAT and taxes included), You will be charged in the hotel's currency. The final price might slightly vary due to the bank's conversion., hotels.com, Select Room, Apr 16 - Apr 23, 2026, 2, 1, Dalila Cosy Double room, From US$133 / night, instead of US$147 / night, hotels.com - Private, H√¥tel Dalila Paris, 51 Rue Letort, Paris, RESERVER, Flights, $2.00 USD, DL YR SURCHARGE, $310.00 USD, DL YQ SURCHARGE, $20.00 USD, DL YR SURCHARGE, $310.00 USD, TAXES, FEES AND CHARGES, $404.26 USD, TOTAL (2 PASSENGERS), $1,046.26 USD, Pay as low as $100.12/mo including fee with Plan It. Terms apply, CHANGEABLE, TICKETS ARE NONREFUNDABLE, CONTRACT OF CARRIAGE, CALCULATE BAGGAGE RATE, PAYMENT, MY WALLET, ADD A NEW CARD, PLAN IT* BY AMERICAN EXPRESS, Add Plan, Explore, Book, Trips, Account, Round Trip, One-Way, Multi-City, Reserve a ride, Electric, DL 8465, lands at 2:00 PM, Wed, Mar 18, $40.06, UberX, $40.06, DL 8465, lands at 2:00 PM, $101.47, Uber(s to and from airport): ~$120, Comfort, $52.90, Apple Pay, Reserve Electric, ‚Ç¨90.80* per month, *all zones, BUS, M, RER, Navigo, Available on mobile phone, Weekly Navigo travel passer, Do you wish to enjoy unlimited travel, week? The weekly Navigo..., ‚Ç¨32.40* per week, *all zones, BUS, M, RER, navigo.fr, H√îTEL, DALILA, PARIS, Plan, Prepare Your Visit, Hotel Dalila, Exceptional, 9.8, 17 reviews, We have 2 left at $444 off at, $118 nightly, $1,682, $1,138 total, Total with taxes and fees, H√¥tel Dalila, Paris, Wonderful, 9.0, 136 reviews, $119 off, $121 nightly, $1,289, $1,171 total, Total with taxes and fees, Hotel Bastille, Good, We have 6 left at $272 off at, $123 nightly, $1,461, $1,189 total, Total with taxes and fees, Source Hotel, Paris, Very Good, TOTAL PRICE, ‚Ç¨10-20, French restaurant, Open, Overview, Menu, Reviews, Photos, About, 2.4K, 4.5, Le Bistro des Augustins, Outdo, bistro des augustin, Laid-back place with sofas &amp; a patio, serving typical bistro fare like toasties &amp; salads, plus wine., Reviews, 4.5, (2.4K), 1, 2, 3, 4, 5, 224 available properties, Done, Paris, 5 stars (131), $2,985, 4 stars (750), $1,178, 3 stars (777), $698, See more, Neighborhood, Paris (1117), Paris (and vicinity) (1401), Paris City Center (138), See more, Guest rating, Any, Wonderful 9+ (571), $698, $1,178, Very good 8+ (1527), $698, Good 7+ (1874), $698, BISTRO, DES AUGUSTINS, CARTE DES VINS, Verre (14cl), T√™te √† t√™te (44cl), Bouteille (75cl), VINS ROUGES, Ch√¢teau Couhert, Pessac-L√©ognan 2017, Ch√¢teau de‚Ä† Malbec BIO, 8,00, 27,00, 40,00, Ch√¢teau d'Aix en Provence 2016, 35,00, Ciron, 35,00, Les Pressades 2013, 14,50, 27,00, 30,00, Bruilly, 16,00, Domaine C≈ìur des Garigues 2018, 22,00, Clos de L'Oratoire, 14,00, 22,00, Ch√¢teau des Tourtes 2017, 15,00, 19,00, C√¥tes de Rhone, 14,00, Perriga 2018, 15,00, Madiras, 15,00, Fruit Noir 2017, 18,00, Ard√®che IGP 2018, 18,00, VINS BLANCS, Domaine Bois, Pierre Moir√© 2018, Ch√¢teau de‚Ä†‚Ä† Lormes BIO, 14,00, 38,00, Ch√¢teau d'Aix en Provence 2016, 13,00, 35,00, Montagne Alligre, Le Ch√¢teau AOC Languedoc 2019, 14,00, 27,00, Chardonnay, G. Duboeuf Pays d'Oc IGP 2019, 14,00, 22,00, VINS ROSE, Ch√¢teau La Coste BIO, Ch√¢teau d'Aix en Provence 2016, C√¥tes de Provence, Honn√™te Saint-Pons 2019, 16,00, 35,00, 25,00, VINS EN PICHET, Uniquement pendant les repas / Only during the meal, Rouge Vin Pays d'Oc, Blanc Vin Pays d'Oc, 5,00, 10,00, Blanc Vin Pays d'Oc, 10,00, CHAMPAGNE, La coupe (14cl), La bouteille (75cl), Beaufort, 60,00, Basseau de Bellboy, 4 of 4, Fromages - Cheese, Cantar cantal cheese (Auvergne), Roquefort (30 mois ou plus de 30me), Roquefort (Blue cheese (Aveyron), Ch√®vre frais - Goat Cheese, Les plateaux de fromages - Assortment of cheeses, 6,00, 6,50, 8,50, 15,00, Desserts, Tarte du jour - Pie of the day, Panna cotta au chocolat, cr√®me fouett√©e, Chocolat fondant, coulis cr√®me, 6,00, 9,00, 9,00, Nous n'acceptons pas les ch√®ques. - Prix TTC en ‚Ç¨ - Taxes et service compris - CB minimum 15‚Ç¨, leftover: $500!, breakfast:, $20 per day, or $140 per week, leftover: $1,056.27, breakfast:, $40ish per day, or $300 per week, leftover: $1,986.27, HIGHLIGHS, leftover: $1,496.27, leftover: $500!</t>
-  </si>
-  <si>
     <t>Creator, Text/Graphics, Technology, Food</t>
-  </si>
-  <si>
-    <t>Multiple brands featured</t>
-  </si>
-  <si>
-    <t>Delta, Hotels.com, Apple Pay, American Express</t>
-  </si>
-  <si>
-    <t>Some of you do not believe me that $80 a week will get you a European vacation. But that's not true because I've done it multiple times. So let me show you how I do it. Firstly, let's just crunch the big numbers. $80 a week for 52 weeks will get you $4,160 a year. Now the question I always get is, is that enough for your European vacation? People seem to think everybody's spending 10, 20, 30,000 to go to Europe. But that's not true. I've gone to Europe multiple times and have never spent more than $4,000. And I'm not staying at hostels, room sharing, or flying a flight with 17 layovers. It's easier than you think if you know where to look. The first thing you need to know about booking a flight to Europe is that Europe is like Disney. If you want to go in the dead of summer or you want to go over Christmas, it's going to be expensive. We have saved thousands of dollars by traveling on the off-season, but that doesn't mean that we're traveling in the dead of winter. We found the best windows to travel are March through April or September through October. Those are months that are still beautiful and great weather for walking around cities, but you're not paying the hefty fees associated with going in June or July. Next, you have to know how to find the best deals on flights and hotels. So let me show you using an example trip, two people had to do Paris this April. The first thing you need to do is look at flights. I'm just using Delta because it's what I fly all the time. I'm sure if you shop around, you can find maybe even better deals, but sometimes they come with weird layovers like Canadian air, which usually does like two different layovers. And I don't mess with that. So let me show you what filters I put in. First, I just put some example dates, a Thursday to Thursday, so it's a week-long trip. And we're doing Columbus to Paris. Any of the airports doesn't really matter. The important part is we select "My dates are flexible" because we're just planning, we don't know what dates we want to go yet. We'll base the specific dates of our vacation on what flights are the cheapest. So, you can see I put in Thursday, April 16th through Thursday, April 23rd, which is a week. But it's actually cheaper to depart a day earlier by about $200. That's fine with me. So I'm going to select that. It looks like the cheapest flight leaves from Columbus at 6:00 PM and has you arriving around lunchtime the next day in Paris at 12:15 PM. The price that you see is including the taxes, but it is for main basic. So if you want to upgrade, you can, but I think main basic is fine. It's kind of like the southwest for international flights. But if you did want to splurge and go for the $749 for the main class, you would need to save about an extra $90 a week to cover that difference for two people. But again, main basic is totally fine. I just love Delta's loyalty program, so I probably would upgrade, but that's just me. So for flights, round trip, you're paying $1,046.26. That's pretty great for an international flight. Next, we're going to go to hotels.com on a private browser, but we're not booking at hotels.com. We just need to get info and then book directly on the hotel's website. So the first thing you do is type in your location and dates. We need seven nights in Paris. We want to be in Paris, not Paris and vicinity or the suburbs. Because sometimes that just gets you too far into the suburbs. And then these are the specific filters that I always select. I select four stars and three stars for the hotel quality. I typically don't stay at anything lower than a three-star, just because I like some of the amenities and I like a hotel to look a little nice and feel safe. But I'm fine with not staying at a five-star hotel. To me, four and three stars are the sweet spot. And the other thing I select is a guest rating of "very good" or above. These are your reviews from Hotels.com. People telling you whether it's a good place to stay or not. I typically don't stay at anything lower than a 7 or a 6, just because I like to save myself time and weed out some places that wouldn't be a good fit for me. So, four and three stars are the sweet spot. And I like a guest rating of "very good" or above. So the "very good 8+" is probably what I would pick. And the reason is because you can get a hotel in Paris for about $118 nightly, which is $1,138 total. Or you can get a hotel for $121 nightly, which is $1,171 total. So they're not bad, but they're not that cheap. So I'm going to go to Hotel Dalila, and go to their website directly. This is such a cute hotel. I just used this as an example, but I'm about to bookmark this for my next trip. I went ahead and put in all of our dates and just selected the lowest room because they don't need anything crazy. So, by booking directly on the site, we're saving almost $300 that total leftover, $2,186.27. Next, let's talk transportation. The one time I really think you should splurge on an Uber is either coming from the airport to the hotel or back from the hotel to the airport. Ubers (to and from airport): ~$120. You're tired, you just got off the plane. It's worth the splurge. For the rest of your trip, if you're in Europe, please take advantage of their fantastic public transit. Including Paris's metro, buses, trains, and trams. The weekly Navigo pass is $32.40 per week, $80 for two for a week of public transport pass, giving you about $40 each for a week of unlimited travel. All their metros, buses, trains, and trams in the larger Paris area. That's truly all you need. And most cities that you're going to visit in Europe are going to be similar. So let's budget about $40 per person for a week of transport, not including those Uber rides. So that's about $80 for two people for a week. And then lunch would usually be at a sit-down cafe. There's so many cute ones in Paris and honestly all over Europe. And I'll show you an example of what one of their menus looks like. Le Bistro des Augustins is about $10 to $20 per person for food, and maybe $15 for a glass of wine if you want. Give or take about $15 per person for food, and maybe $15 for a glass of wine if you want. In total, you're looking at about $300 for your week's worth of lunches. But that doesn't mean this is the cheapest. I'm here to spend on some good food, especially if I'm in a different country. So my budget reflects that. But that doesn't mean this is the cheapest way. You can do breakfast for about $10 per day, or $140 per week, so $20 for the both of us each day for seven days. That's about $140. Then lunch you could do one "nice" dinner: $200 plus $50 times six on casual dinners = $500. That leaves you with $500 leftover! So you could spend $150 a day on dinner or $1,050 for the week. That leaves you with $500 leftover! So you could spend $150 a day on dinner or $1,050 for the week. You could spend $500 on some nice dinners, or if you're like me, you could spend about $80 a day on vintage and thrift stores. So, the point of this video is not to tell you that you have to do our exact travel plans, but it is to show you that it's easier than you think to travel on a budget when you do some digging and get a little creative. I talked about this in my last video, but I'm actually headed to Mexico City for about $3,000 total for a week. I am so, so excited. So if you have any Rex, please let me know and let me know if you want to see more travel content.</t>
   </si>
   <si>
     <t>Catching Food.mp4</t>
@@ -406,36 +361,6 @@
   </si>
   <si>
     <t>Eat Wingstop for the whole day! This might cause some other things to stop. Let's eat. Food hack time. Rate 8.8 out of 10.</t>
-  </si>
-  <si>
-    <t>Gadget Review.mp4</t>
-  </si>
-  <si>
-    <t>https://linqia-video-analyser-bucket.s3.us-east-2.amazonaws.com/Videos%20for%20Analysis/Gadget%20Review.mp4</t>
-  </si>
-  <si>
-    <t>The video is a review of the Xiaomi 17 Promax phone. The creator demonstrates the zoom capabilities of the rear camera, noting that the zoom ability is good and the image quality is HD. They highlight the back screen as a favorite feature, which can display a clock or a cat image. The creator also shows how the phone can be used for mirror selfies with the rear camera. They compare the video quality to the iPhone 12 Pro Max, noting differences in color contrast. The creator concludes that the phone's back camera quality and color are good and that the zoom is smooth and stable, making it a suitable device for content creation. The creator expresses satisfaction with the purchase and states it was the best decision made.</t>
-  </si>
-  <si>
-    <t>Technology, Gadget Reviews</t>
-  </si>
-  <si>
-    <t>Reviews, Vlogs, How-To Guides</t>
-  </si>
-  <si>
-    <t>My Review On Xiaomi 17 Promax, Move farther away, 1.1x, zoom ability is good for me!!, 2.5x, 4.7x, 6.5x, cuteee?!?!? ü•∫ü•∫, cuteee?!?!? ü•∫ü•∫, This is the back screen, This is also mirror screen for you to selfie using back camera, cam Xiaomi 17 promax:, cam Iphone 12 pro max:, kalian bisa liat sendiri perbedaan warnanya:, HD &amp; jernih tapi ga fokus ke pori-pori / makeup cakey!, zoom lebih smooth &amp; stabil, ini quality and warna back camera! üì∏, best decision I made!! ‚ú®üíñ</t>
-  </si>
-  <si>
-    <t>Creator, Technology, Product, Text/Graphics</t>
-  </si>
-  <si>
-    <t>Tech brands</t>
-  </si>
-  <si>
-    <t>Xiaomi, iPhone</t>
-  </si>
-  <si>
-    <t>My personal experience pakai Xiaomi 17 Promax. Ini test zoom camera belakang. I think it's pretty good and pretty HD. Tapi my favorite feature pastinya screen belakang ini. Ini tuh lucu banget, tapi pastinya tetap berguna because ini juga bisa mirror screen buat kalian yang mau selfie pakai camera belakang. Overall the phone is really fast and udah nggak nge-hang lagi kayak Android jaman dulu. Aku shoot video ini pakai iPhone 12 Pro Max. Kalian bisa liat sendiri perbedaan warnanya. Lumayan keliatan beda color contrastnya antara iPhone dan Xiaomi. Tapi aku masih suka quality video-nya yang terang dan jernih. Zoom lebih smooth &amp; stabil. As a girl yang suka content creating, HP ini bener-bener cocok banget untuk aku. And so far aku nggak nyesel sama sekali changing from Apple to Xiaomi.</t>
   </si>
   <si>
     <t>Hair Tutorial.mp4</t>
@@ -982,12 +907,1418 @@
     <t>• While not mentioned, brands printed on gamer's clothing (e.g. Merc, Samsung, Odyssey)
 • Not sure if on screen text is supposed to include the transcript or ??</t>
   </si>
+  <si>
+    <t>• Not sure why it always includes 'Face Only' on top of 'Full body' when it's usually a full body video
+• Clothing/fashion items? should that be included as a key video element
+• Correctly identifies no spoken audio</t>
+  </si>
+  <si>
+    <t>• Misses out on "I know you want a bite" on the transcription, else everything accurate
+• Doesn't identify usernames/handles
+• Instead of quotes it should be more of a 'respond to comment'</t>
+  </si>
+  <si>
+    <t>ISSUES TO NOTE</t>
+  </si>
+  <si>
+    <t>Picks up more information than it needs (e.g. FACE ONLY + FULL BODY) when it's usually just full body</t>
+  </si>
+  <si>
+    <t>Not enough categories to select from</t>
+  </si>
+  <si>
+    <t>Can't pick up transitions</t>
+  </si>
+  <si>
+    <t>Picks up family-friendly, mild-language very commonly</t>
+  </si>
+  <si>
+    <t>Doesn't identify usernames/handles, respond to comment videos - may need a prompt to identify these</t>
+  </si>
+  <si>
+    <t>Picks up too many key video elements (e.g. Technology - when a gym girl just wear an apple headphone, Clothing/Fitness - when it's just someone gymming or clothed)</t>
+  </si>
+  <si>
+    <t>Transcription still missing</t>
+  </si>
+  <si>
+    <t>Any time any "instructions" or "directions" are given - maybe it should be able to detect that it is a tutorial. (e.g. instrument tutorial), check for "how to"</t>
+  </si>
+  <si>
+    <t>• While the summary is good, it doesn't go into more key details about (e.g. giving instructions on how to play the song slowly and increasing the speed to show what it should actually sound like)
+• Would be better instead of just music, it did not pick up on "instrument tutorials" for content theme, but did pick up for content style
+• Instead of product names, perhaps brand names or brand logos for Pearl River piano</t>
+  </si>
+  <si>
+    <t>Categories to Add</t>
+  </si>
+  <si>
+    <t>Oddly satisfying</t>
+  </si>
+  <si>
+    <t>Viral content</t>
+  </si>
+  <si>
+    <t>Lifestyle</t>
+  </si>
+  <si>
+    <t>Sensory videos</t>
+  </si>
+  <si>
+    <t>• Should be more than just face only, it is full body. 
+• Unable to classify or categorise what type of video it is - should be "oddly satisfying" or "sensory" content type videos</t>
+  </si>
+  <si>
+    <t>• For on-screen-text attribute, it pretty much transribes everything on the screen, including what can be shown on the creator's personal laptop, which then means there's a massive output. 
+• Classifies clothing/fashion items as a key element of the video when it is not
+• For the actual transcription, it transcribes the on screen texts on top of what is being said</t>
+  </si>
+  <si>
+    <t>Can't pick up the explicit languages that are in the background song</t>
+  </si>
+  <si>
+    <t>Response videos</t>
+  </si>
+  <si>
+    <t>Text-based</t>
+  </si>
+  <si>
+    <t>Talking-head</t>
+  </si>
+  <si>
+    <t>Demonstration</t>
+  </si>
+  <si>
+    <t>Ragebait</t>
+  </si>
+  <si>
+    <t>It's still recording background music (where the creator isn't talking) as part of the transcription</t>
+  </si>
+  <si>
+    <t>Debating</t>
+  </si>
+  <si>
+    <t>Social Commentary</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>Philosophical</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>Exam Preparation</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Student Life</t>
+  </si>
+  <si>
+    <t>Campus Tours</t>
+  </si>
+  <si>
+    <t>Interview Tips</t>
+  </si>
+  <si>
+    <t>Study with Me</t>
+  </si>
+  <si>
+    <t>Racing</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Extreme Sports</t>
+  </si>
+  <si>
+    <t>Motivational Content</t>
+  </si>
+  <si>
+    <t>Tips and Tricks</t>
+  </si>
+  <si>
+    <t>Walking Tour</t>
+  </si>
+  <si>
+    <t>Motivation</t>
+  </si>
+  <si>
+    <t>Famous Quotes</t>
+  </si>
+  <si>
+    <t>Health &amp; Wellbeing</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Medical Advice</t>
+  </si>
+  <si>
+    <t>Career</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t>Key Video Elements</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Aviation</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Travel Accessories</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Routes</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Celebrities</t>
+  </si>
+  <si>
+    <t>Entertainment News</t>
+  </si>
+  <si>
+    <t>News/Headlines</t>
+  </si>
+  <si>
+    <t>Quotes</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>Nutrition</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Cryptocurrency</t>
+  </si>
+  <si>
+    <t>Travel Itineraries</t>
+  </si>
+  <si>
+    <t>Case Studies</t>
+  </si>
+  <si>
+    <t>Street Interview</t>
+  </si>
+  <si>
+    <t>Back to School</t>
+  </si>
+  <si>
+    <t>What's In My Bag</t>
+  </si>
+  <si>
+    <t>Couples</t>
+  </si>
+  <si>
+    <t>Giveaways</t>
+  </si>
+  <si>
+    <t>Product Reviews</t>
+  </si>
+  <si>
+    <t>Service Reviews</t>
+  </si>
+  <si>
+    <t>Study Tips</t>
+  </si>
+  <si>
+    <t>Success Stories</t>
+  </si>
+  <si>
+    <t>OLD PROMPT TEXT</t>
+  </si>
+  <si>
+    <t>OLD_PROMPT_TEXT = """
+a) Summarize this video
+b) Answer below questions in 1 or 2 words:
+    i) What is the depicted Content Theme or Niches in the video from the below options (if it does not fall in any of the below categories, return "No category"):
+    - Recipes, Cooking, Baking, Food Reviews, Restaurant Tours, Pets, Dog Training, Cat Care, Exotic Animals, Travel, Budget Travel,Luxury Travel, Adventure Travel, Family, Parenting, Single Parenting, Large Family Life, Cars, Car Reviews, Auto Repair, Classic Cars,Fashion, Streetwear, High Fashion, Thrifting, Beauty, Skincare,Makeup Tutorials, Hair Styling, Fitness, Weightlifting, Yoga, CrossFit, Technology, Gadget Reviews, Coding Tutorials,Tech News, Gaming, Game Reviews, Let's Plays, Esports, Music, Instrument Tutorials,Music Production, Song Covers, DIY/Crafts, Home Improvement, Upcycling,Arts and Crafts, Education, Language Learning, Science Experiments,History Lessons,Humor,Stand-up Comedy,Pranks,Sketch Comedy,Lifestyle,Minimalism,Luxury Living,Van Life,Personal Finance,Budgeting Tips,Investing Basics,Cryptocurrency,Mental Health,Meditation,Therapy Insights,Self-Care Tips,Gardening,Urban Gardening,Permaculture,Plant Care,Sports,Sports Analysis,Athlete Interviews,Training Tips,Books,Book Reviews,Author Interviews,Reading Challenges,Art,Painting Tutorials,Digital Art,Art History,Photography,Camera Reviews,Photo Editing Tutorials,Photography Tips,Environmental,Sustainability Tips,Climate Change Awareness,Zero Waste Living,Politics,Political Analysis,Activism,Civic Education,Spirituality,Meditation Guides,Religious Teachings,New Age Practices,Business,Entrepreneurship,Marketing Tips,Small Business Advice,Science,Space Exploration,Biology Facts,Chemistry Experiments,Film/TV,Movie Reviews,TV Show Recaps,Behind-the-Scenes,Fashion,Outfit Ideas,Fashion History,Sustainable Fashion
+    ii) What is the content style that can be inferred from this video from the below options (if it does not fall in any of the below categories, return "No category"):
+    - ASMR,Skits,Transitions,Graphics-heavy,Vlogs,Day-in-the-Life,Tutorials,Reviews,Unboxing,Challenges,Q&amp;A,Interviews,Reaction Videos,Compilations,Time-lapse,Slow Motion,Stop Motion,Live Streaming,Storytelling,Podcasts,Listicles,How-To Guides,Before and After,Pranks,Social Experiments,Parodies,Montages,Behind-the-Scenes,Hauls,Lookbooks,Product Demos,Taste Tests,Mukbang,Room Tours,Workout Routines,Outfit of the Day,Get Ready With Me,What I Eat in a Day,Morning Routines,Night Routines,Transformation Videos,Expectation vs. Reality,Duets/Collaborations,Rants,Storytime,Ambient/Background Videos,Shorts/Reels/TikToks,Educational Animations,Whiteboard Explainers,Green Screen Effects,Point-of-View (POV),Lip Sync,Dance Choreography,Talent Showcases
+    iii)What is the amount of creator present that can be inferred from this video. Choose from below options, if it does not fall in any of the below categories, return "No category":
+    - Hands-only,Creator-centric,Silhouettes,No visible people,Occasional appearances,Group content,Face only,Full body,Voice-only,Animated avatar,Family-focused,Pet-focused,Product-focused,Guest-starring,Cameo appearances,Behind the camera,Partial visibility (e.g., lower body only)
+    iv) Which of these On-Screen Text / Graphics like categories are shown in the video. Choose whatever is applicable from below options:
+    - "POV",Closed Captioning,Brand Logos,FTC Disclosures (#ad, #brandpartner),Subtitles,Emojis,Infographics,Statistics,Quotes,Timestamps,Pricing Information,Product Names,Usernames/Handles,Clickable Links,Countdown Timers,Call-to-Action Buttons,Animated Text,Lyric Displays,Screen Overlays,Lower Thirds,Pop-up Bubbles,Tutorial Steps,Recipe Ingredients,Titles/Headlines,End Screens,Watermarks,Location Tags,Age Restrictions,Content Warnings,Fact Boxes,Scoreboard/Leaderboard
+    v) What are some of the key video elements. Choose from below options:
+    - The Creator,A Product,A Pet,A Child,A Location,An Activity,Text/Graphics,Music/Sound,Special Effects,Props,Food,Vehicles,Technology,Nature,Urban Environment,Artwork,Sports Equipment,Clothing/Fashion Items,Books,Musical Instruments,Fitness Equipment,Beauty Products,Home Decor,DIY Projects,Collectibles,Celebrity Guests,Expert Interviews,Audience Participation,Screen Recordings,Archival Footage
+    vi) What does this video say about Brand Safety Considerations. Choose from below options:
+    - Family-friendly,Mild language,Strong language,Sexual content,Violence,Drug use,Alcohol consumption,Revealing clothing,Controversial topics,Political content,Religious content,Graphic medical content,Dangerous stunts,Potential copyright issues,Unverified health claims,Financial advice (potential risk),Sensitive social issues,Depictions of gambling,Weapons,Extreme sports,Conspiracy theories,Potential misinformation,Satire/parody (may be misunderstood)
+    vii) What brands are featured in this video Chose from below options:
+    - No brands featured,Multiple brands featured,Exclusive brand partnership,Competitor brands shown,Small/local brands,Luxury brands,Tech brands,Fashion brands,Beauty brands,Food and beverage brands,Automotive brands,Travel/hospitality brands,Fitness/health brands,Home goods brands,Entertainment brands,Financial services brands,Educational brands,Pet care brands,Sustainability-focused brands,Sports equipment brands,Gaming brands,Subscription services,Direct-to-consumer brands,Retail chains
+    viii) Brand names that are featured in the video - Return names
+"""</t>
+  </si>
+  <si>
+    <t>NEW_PROMPT_TEXT</t>
+  </si>
+  <si>
+    <t>NEW_PROMPT_TEXT = """
+You are an AI video analysis system. You MUST follow these rules:
+STRICT RULES (NO HALLUCINATION):
+- Do NOT guess, infer, assume, or add information not explicitly shown or spoken.
+- If something is unclear or not confirmed visually or through transcript, return “No category”, “Unknown”, or “None”.
+- Do NOT infer creator intent, emotions, demographics, motivations.
+- Do NOT identify brands unless a logo is clearly readable OR the transcript explicitly names the brand.
+- If multiple interpretations are possible, choose the LEAST specific.
+- Prefer “No category” instead of guessing.
+- Transcript overrides for spoken facts. Visuals override for visual facts.
+- If visuals &amp; transcript conflict → choose “Unknown”.
+INPUTS:
+- Video (creator video)
+- Transcript (spoken content)
+TASK A — VIDEO SUMMARY  
+Provide a strictly summary of this video describing ONLY what is visually and audibly confirmed.
+TASK B — CLASSIFICATION  
+Classify the video using ONLY the allowed labels below.  
+If it does not match ANY category → return “No category”.
+────────────────────────────────────────────────────────
+1) CONTENT THEME (choose MULTIPLE)
+[Recipes, Cooking, Baking, Food Reviews, Restaurant Tours, Pets, Dog Training, Cat Care, Exotic Animals, Travel, Budget Travel, Luxury Travel, Adventure Travel, Family, Parenting, Single Parenting, Large Family Life, Cars, Car Reviews, Auto Repair, Classic Cars, Fashion, Streetwear, High Fashion, Thrifting, Beauty, Skincare, Makeup Tutorials, Hair Styling, Fitness, Weightlifting, Yoga, CrossFit, Technology, Gadget Reviews, Coding Tutorials, Tech News, Gaming, Game Reviews, Let's Plays, Esports, Music, Instrument Tutorials, Music Production, Song Covers, DIY/Crafts, Home Improvement, Upcycling, Arts and Crafts, Education, Language Learning, Science Experiments, History Lessons, Humor, Stand-up Comedy, Pranks, Sketch Comedy, Lifestyle, Minimalism, Luxury Living, Van Life, Personal Finance, Budgeting Tips, Investing Basics, Cryptocurrency, Mental Health, Meditation, Therapy Insights, Self-Care Tips, Gardening, Urban Gardening, Permaculture, Plant Care, Sports, Sports Analysis, Athlete Interviews, Training Tips, Books, Book Reviews, Author Interviews, Reading Challenges, Art, Painting Tutorials, Digital Art, Art History, Photography, Camera Reviews, Photo Editing Tutorials, Photography Tips, Environmental, Sustainability Tips, Climate Change Awareness, Zero Waste Living, Politics, Political Analysis, Activism, Civic Education, Spirituality, Meditation Guides, Religious Teachings, New Age Practices, Business, Entrepreneurship, Marketing Tips, Small Business Advice, Science, Space Exploration, Biology Facts, Chemistry Experiments, Film/TV, Movie Reviews, TV Show Recaps, Behind-the-Scenes, Fashion, Outfit Ideas, Fashion History, Sustainable Fashion]
+2) CONTENT STYLE (choose MULTIPLE)
+[ASMR, Skits, Transitions, Graphics-heavy, Vlogs, Day-in-the-Life, Tutorials, Reviews, Unboxing, Challenges, Q&amp;A, Interviews, Reaction Videos, Compilations, Time-lapse, Slow Motion, Stop Motion, Live Streaming, Storytelling, Podcasts, Listicles, How-To Guides, Before and After, Pranks, Social Experiments, Parodies, Montages, Behind-the-Scenes, Hauls, Lookbooks, Product Demos, Taste Tests, Mukbang, Room Tours, Workout Routines, Outfit of the Day, Get Ready With Me, What I Eat in a Day, Morning Routines, Night Routines, Transformation Videos, Expectation vs. Reality, Duets/Collaborations, Rants, Storytime, Ambient/Background Videos, Shorts/Reels/TikToks, Educational Animations, Whiteboard Explainers, Green Screen Effects, Point-of-View (POV), Lip Sync, Dance Choreography, Talent Showcases, Study With Me]
+3) CREATOR PRESENCE (choose MULTIPLE)
+[Hands-only, Creator-centric, Silhouettes, No visible people, Occasional appearances, Group content, Face only, Full body, Voice-only, Animated avatar, Family-focused, Pet-focused, Product-focused, Guest-starring, Cameo appearances, Behind the camera, Partial visibility]
+4) ON-SCREEN TEXT / GRAPHICS (choose MULTIPLE)
+["POV", Closed Captioning, Brand Logos, FTC Disclosures (#ad/#brandpartner), Subtitles, Emojis, Infographics, Statistics, Quotes, Timestamps, Pricing Information, Product Names, Usernames/Handles, Clickable Links, Countdown Timers, Call-to-Action Buttons, Animated Text, Lyric Displays, Screen Overlays, Lower Thirds, Pop-up Bubbles, Tutorial Steps, Recipe Ingredients, Titles/Headlines, End Screens, Watermarks, Location Tags, Age Restrictions, Content Warnings, Fact Boxes, Scoreboard/Leaderboard]
+5) KEY VIDEO ELEMENTS (choose MULTIPLE)
+[Creator, Product, Pet, Child, Text/Graphics, Music/Sound, Special Effects, Props, Food, Vehicles, Technology, Nature, Urban Environment, Artwork, Sports Equipment, Clothing/Fashion Items, Books, Musical Instruments, Fitness Equipment, Beauty Products, Home Decor, DIY Projects, Collectibles, Celebrity Guests, Expert Interviews, Audience Participation, Screen Recordings, Archival Footage]
+6) BRAND SAFETY CATEGORIES (choose MULTIPLE)
+[Family-friendly, Mild language, Strong language, Sexual content, Violence, Drug use, Alcohol consumption, Revealing clothing, Controversial topics, Political content, Religious content, Graphic medical content, Dangerous stunts, Potential copyright issues, Unverified health claims, Financial advice, Sensitive social issues, Depictions of gambling, Weapons, Extreme sports, Conspiracy theories, Potential misinformation, Satire/parody]
+7) BRAND TYPE (choose MULTIPLE)
+[No brands featured, Multiple brands featured, Exclusive brand partnership, Competitor brands shown, Small/local brands, Luxury brands, Tech brands, Fashion brands, Beauty brands, Food and beverage brands, Automotive brands, Travel/hospitality brands, Fitness/health brands, Home goods brands, Entertainment brands, Financial services brands, Educational brands, Pet care brands, Sustainability-focused brands, Sports equipment brands, Gaming brands, Subscription services, Direct-to-consumer brands, Retail chains]
+8) BRAND NAMES (free text; “None” if no brands visible or spoken)
+9) CAPTION for the video (2–3 sentences, strictly factual, no assumptions)
+10) Video Transcript:
+    **Role:** You are a professional video transcriber and editor.
+    **Task:** Create a verbatim transcript of the SPOKEN audio in this video file.
+    **Strict Constraints:**
+        1. **Audio Only:** Transcribe only what is spoken. Do NOT transcribe text that appears on the screen (titles, lower thirds, subtitles, or background signs).
+        2. **No Visual Descriptions:** Do not describe the scene, actions, or physical appearance of the speakers.
+        3. **Clean Up:** Remove filler words (like "um," "uh," "ah") and false starts to make the text human-readable, but do not change the meaning or vocabulary used by the speakers.
+        4. **Formatting:** Use proper punctuation and paragraph breaks to ensure readability.
+    **Output:** Provide the transcript in plain text format.
+────────────────────────────────────────────────────────
+OUTPUT FORMAT — STRICT JSON ONLY
+{
+  "summary": "",
+  "content_theme": "",
+  "content_style": "",
+  "creator_presence": "",
+  "on_screen_text": [],
+  "key_video_elements": [],
+  "brand_safety": [],
+  "brand_type": "",
+  "brand_names": [],
+  "transcript": ""
+}
+Return ONLY this JSON. No explanations.
+"""</t>
+  </si>
+  <si>
+    <t>NEW_PROMPT_TEXT_2</t>
+  </si>
+  <si>
+    <t>NEW_PROMPT_TEXT_2 = """
+You are an AI video analysis system. You MUST follow these rules:
+STRICT RULES (NO HALLUCINATION):
+- Do NOT guess, infer, assume, or add information not explicitly shown or spoken.
+- If something is unclear or not confirmed visually or through transcript, return “No category”, “Unknown”, or “None”.
+- Do NOT infer creator intent, emotions, demographics, motivations.
+- If multiple interpretations are possible, choose the LEAST specific.
+- Prefer “No category” instead of guessing.
+- Transcript overrides for spoken facts. Visuals override for visual facts.
+- If visuals &amp; transcript conflict → choose “Unknown”.
+BODY VISIBILITY RULES
+- "FACE ONLY" applies ONLY if no part of the body beyond the face or neck is visible at any point in the video.
+- If any torso, arms, or legs are visible at any time, "FACE ONLY" must NOT be selected.
+- "FULL BODY" applies if the head, torso, and legs are visible at the same time in at least one frame.
+- "UPPER BODY" applies if torso and arms are visible but legs are not.
+- Categories may co-exist ONLY if their definitions do not logically contradict.
+- Do NOT select logically conflicting categories.
+CATEGORY SELECTION RULES
+- A category must represent the PRIMARY focus of the video.
+- The presence of an object alone does NOT justify a category.
+- Incidental objects (e.g. phones, headphones, clothing) must NOT trigger categories unless they are discussed, demonstrated, or central to the content.
+TUTORIAL IDENTIFICATION RULES
+- Label as "Tutorial" ONLY if:
+  a) The transcript contains instructional language (e.g. "how to", "step one", "do this", "let me show you", "this is how you"), OR
+  b) The video clearly demonstrates a sequence of steps intended to teach.
+- Demonstration without teaching intent is NOT a tutorial.
+TRANSITION VIDEO RULES
+- Identify transitions ONLY if an observable editing change occurs (e.g. cut, fade, jump).
+- Camera movement alone is NOT a transition.
+- If uncertain, output "None".
+BRAND SAFETY – LANGUAGE &amp; VISUAL RISK DETECTION RULES
+- This task is for BRAND SAFETY classification.
+- Evaluate ALL modalities for potential brand safety risk:
+  a) Audible language
+  b) Visual imagery
+  c) On-screen text
+--------------------------------
+LANGUAGE (AUDIO &amp; TEXT)
+--------------------------------
+- Evaluate ALL audible language for brand safety risk, including:
+  a) Spoken dialogue
+  b) Background music lyrics
+  c) On-screen text that is audibly spoken
+- Background music lyrics MUST be treated as equivalent to spoken language
+  for brand safety classification.
+- If explicit or profane words are clearly audible in background lyrics,
+  classify the video as containing explicit language.
+- Do NOT ignore language because it is part of a song or background audio.
+- Do NOT infer lyrics, censor words, or guess based on artist or genre.
+- If lyrics are present but not clearly intelligible, output "Unknown".
+--------------------------------
+VISUAL (IMAGERY)
+--------------------------------
+- Evaluate visual content for brand safety risk based ONLY on what is clearly visible.
+- Visual risk includes, but is not limited to:
+  a) Graphic medical procedures or exposed organs
+  b) Visible blood, wounds, or injuries presented in a graphic manner
+  c) Explicit sexual imagery or nudity
+  d) Disturbing, shocking, or gory imagery
+- Do NOT infer context, intent, or acceptability.
+- Medical or educational context does NOT negate visual brand safety risk.
+- If graphic or explicit imagery is clearly visible, flag for brand safety risk.
+- If visuals are suggestive but not clearly graphic, output "Unknown".
+INPUTS:
+- Video (creator video)
+- Transcript (spoken content)
+TASK A — VIDEO SUMMARY  
+Provide a strictly summary of this video describing ONLY what is visually and audibly confirmed.
+TASK B — CLASSIFICATION  
+Classify the video using ONLY the allowed labels below.  
+If it does not match ANY category → return “No category”.
+────────────────────────────────────────────────────────
+1) CONTENT THEME (choose MULTIPLE)
+[Recipes, Cooking, Baking, Food Reviews, Restaurant Tours, Pets, Dog Training, Cat Care, Exotic Animals, Travel, Budget Travel, Luxury Travel, Adventure Travel, Family, Parenting, Single Parenting, Large Family Life, Cars, Car Reviews, Auto Repair, Classic Cars, Fashion, Streetwear, High Fashion, Thrifting, Beauty, Skincare, Makeup Tutorials, Hair Styling, Fitness, Weightlifting, Yoga, CrossFit, Technology, Gadget Reviews, Coding Tutorials, Tech News, Gaming, Game Reviews, Let's Plays, Esports, Music, Instrument Tutorials, Music Production, Song Covers, DIY/Crafts, Home Improvement, Upcycling, Arts and Crafts, Education, Language Learning, Science Experiments, History Lessons, Humor, Stand-up Comedy, Pranks, Sketch Comedy, Lifestyle, Minimalism, Luxury Living, Van Life, Personal Finance, Budgeting Tips, Investing Basics, Cryptocurrency, Mental Health, Meditation, Therapy Insights, Self-Care Tips, Gardening, Urban Gardening, Permaculture, Plant Care, Sports, Sports Analysis, Athlete Interviews, Training Tips, Books, Book Reviews, Author Interviews, Reading Challenges, Art, Painting Tutorials, Digital Art, Art History, Photography, Camera Reviews, Photo Editing Tutorials, Photography Tips, Environmental, Sustainability Tips, Climate Change Awareness, Zero Waste Living, Politics, Political Analysis, Activism, Civic Education, Spirituality, Meditation Guides, Religious Teachings, New Age Practices, Business, Entrepreneurship, Marketing Tips, Small Business Advice, Science, Space Exploration, Biology Facts, Chemistry Experiments, Film/TV, Movie Reviews, TV Show Recaps, Behind-the-Scenes, Fashion, Outfit Ideas, Fashion History, Sustainable Fashion, Oddly Satisfying, Sensory Video, Debating, Social Commentary, Philosophy, Study, Academics, Exam Preparation, Research, Student Life, Campus Tours, Interview Tips, Racing, Religion, Extreme Sports, Wildlife, Motivation, Famous Quotes, Walking Tour, Health &amp; Wellbeing, Medical, Career, Aviation, Geography, Investments, Property, Celebrities, Entertainment News, Back to School, Couples]
+2) CONTENT STYLE (choose MULTIPLE)
+[ASMR, Skits, Transitions, Graphics-heavy, Vlogs, Day-in-the-Life, Tutorials, Reviews, Unboxing, Challenges, Q&amp;A, Interviews, Reaction Videos, Compilations, Time-lapse, Slow Motion, Stop Motion, Live Streaming, Storytelling, Podcasts, Listicles, How-To Guides, Before and After, Pranks, Social Experiments, Parodies, Montages, Behind-the-Scenes, Hauls, Lookbooks, Product Demos, Taste Tests, Mukbang, Room Tours, Workout Routines, Outfit of the Day, Get Ready With Me, What I Eat in a Day, Morning Routines, Night Routines, Transformation Videos, Expectation vs. Reality, Duets/Collaborations, Rants, Storytime, Ambient/Background Videos, Shorts/Reels/TikToks, Educational Animations, Whiteboard Explainers, Green Screen Effects, Point-of-View (POV), Lip Sync, Dance Choreography, Talent Showcases, Response Videos, Text-based, Talking-Head, Demonstration, Ragebait, Philosophical, Motivational Content, Study With Me, Study Tips, Tips and Tricks, Medical Advice, Quiz, Travel Itineraries, Case Studies, Street Interview, What's In My Bag, Giveaways, Product Reviews, Service Reviews, Success Stories]
+3) CREATOR PRESENCE (choose MULTIPLE)
+[Hands-only, Creator-centric, Silhouettes, No visible people, Occasional appearances, Group content, Face only, Full body, Voice-only, Animated avatar, Family-focused, Pet-focused, Product-focused, Guest-starring, Cameo appearances, Behind the camera, Partial visibility]
+4) ON-SCREEN TEXT / GRAPHICS (choose MULTIPLE - SELECT ONLY from provided list; do NOT output transcript)
+["POV", Closed Captioning, Brand Logos, FTC Disclosures (#ad/#brandpartner), Subtitles, Emojis, Infographics, Statistics, Quotes, Timestamps, Pricing Information, Product Names, Usernames/Handles, Clickable Links, Countdown Timers, Call-to-Action Buttons, Animated Text, Lyric Displays, Screen Overlays, Lower Thirds, Pop-up Bubbles, Tutorial Steps, Recipe Ingredients, Titles/Headlines, End Screens, Watermarks, Location Tags, Age Restrictions, Content Warnings, Fact Boxes, Scoreboard/Leaderboard]
+5) KEY VIDEO ELEMENTS (choose MULTIPLE)
+[Creator, Product, Pet, Child, Text/Graphics, Music/Sound, Special Effects, Props, Food, Vehicles, Technology, Nature, Urban Environment, Artwork, Sports Equipment, Clothing/Fashion Items, Books, Musical Instruments, Fitness Equipment, Beauty Products, Home Decor, DIY Projects, Collectibles, Celebrity Guests, Expert Interviews, Audience Participation, Screen Recordings, Archival Footage, Medicine, Electronics, Drinks, Accessories, Travel Accessories, Transportation, Map, Routes, News/Headlines, Quotes, Hardware, Military, Nutrition, Healthcare, Property, Stocks, Cryptocurrency]
+6) BRAND SAFETY CATEGORIES (choose MULTIPLE)
+[Family-friendly, Not family-friendly, Mild language, Strong language, Sexual content, Violence, Drug use, Alcohol consumption, Revealing clothing, Controversial topics, Political content, Religious content, Graphic medical content, Dangerous stunts, Potential copyright issues, Unverified health claims, Financial advice, Sensitive social issues, Depictions of gambling, Weapons, Extreme sports, Conspiracy theories, Potential misinformation, Satire/parody]
+7) BRAND TYPE (choose MULTIPLE)
+[No brands featured, Multiple brands featured, Exclusive brand partnership, Competitor brands shown, Small/local brands, Luxury brands, Tech brands, Fashion brands, Beauty brands, Food and beverage brands, Automotive brands, Travel/hospitality brands, Fitness/health brands, Home goods brands, Entertainment brands, Financial services brands, Educational brands, Pet care brands, Sustainability-focused brands, Sports equipment brands, Gaming brands, Subscription services, Direct-to-consumer brands, Retail chains]
+8) BRAND NAMES (free text; “None” if no brands visible or spoken)
+9) CAPTION for the video (2–3 sentences, strictly factual, no assumptions)
+10) Video Transcript:
+    **Role:** You are a professional video transcriber and editor.
+    **Task:** Create a verbatim transcript of the SPOKEN audio in this video file.
+    **Strict Constraints:**
+        1. **Audio Only:** Transcribe only what is spoken. If words are visible on screen (e.g. titles, lower thirds, subtitles, background signs, images on a laptop) but not audibly spoken, they must NOT appear in the transcript. Do NOT merge or reconcile audio with on-screen text. Visual text is NOT evidence of speech.
+        2. **No Visual Descriptions:** Do not describe the scene, actions, or physical appearance of the speakers.
+        3. **Clean Up:** Remove filler words (like "um," "uh," "ah") and false starts to make the text human-readable, but do not change the meaning or vocabulary used by the speakers.
+        4. **Formatting:** Use proper punctuation and paragraph breaks to ensure readability.
+    **Output:** Provide the transcript in plain text format.
+────────────────────────────────────────────────────────
+OUTPUT FORMAT — STRICT JSON ONLY
+{
+  "summary": "",
+  "content_theme": "",
+  "content_style": "",
+  "creator_presence": "",
+  "on_screen_text": [],
+  "key_video_elements": [],
+  "brand_safety": [],
+  "brand_type": "",
+  "brand_names": [],
+  "transcript": ""
+}
+Return ONLY this JSON. No explanations.
+"""</t>
+  </si>
+  <si>
+    <t>The video shows a makeup application process. A person is applying various makeup products to another person's face, including eyeshadow, foundation, blush, contour, and lip products. The creator is explaining some of the techniques and products used, mentioning they are offering one-on-one lessons. The final look is described as glamorous, stunning, and elegant.</t>
+  </si>
+  <si>
+    <t>['Creator-centric', 'Face only', 'Guest-starring']</t>
+  </si>
+  <si>
+    <t>Creator, Beauty Products, Text/Graphics</t>
+  </si>
+  <si>
+    <t>['Beauty brands', 'Direct-to-consumer brands']</t>
+  </si>
+  <si>
+    <t>Huda Beauty, MAC, Maybelline</t>
+  </si>
+  <si>
+    <t>Honestly, this is probably one of my favorite glam looks that I've done so far. Keep watching to see how I've done it. Also guys, I'm offering one-on-one lessons. So reach out to me on Instagram if you're interested. First things first, always prepping the eyelids with some concealer, setting it down with powder. I'm just going in with a few transition shades. I'm focusing them on the outer corner of the eye and then just slightly dragging it through. I build them up first to the intensity that I like before I move on to the darker color. Now I'm intensifying the eye makeup with some black shadow and a bit of liner, smudging it out and making sure it's all blended. I've also made custom lashes using individual lashes from Shein. At this point, her eyes are still matte because I wasn't sure if I wanted to add shimmer. I do add shimmer in the end. For foundation, I used Haus Labs and Estee Lauder foundation. And blush, I've used Morphe and the Made by}.$M$itchell curve case. This is like my favorite part of the makeup because I feel like you can really see everything coming together now with the contour and the concealer and the blush placement. It's looking so flawless and smooth. I'm just bronzing her up now. I'm just reinforcing everything that I've done with cream but with powder now. With the blush, I'll use like five different blushes. I'll use a matte blush, a shimmery blush. I just find that you get the perfect finish like that. For her lower lash line, I'm just using the same colors that I used for her eyeshadow. For the shimmer, I used the Haus Labs highlighter. And now for her lips, I used the "SPICY" from Morphe and just a bit of gloss from Maybelline. Honestly, this is just one of my favorite glams. It's just so stunning, so elegant, still glam without being too crazy. I'm obsessed. It's so stunning.</t>
+  </si>
+  <si>
+    <t>The video shows a woman applying makeup. She starts with no makeup, then applies foundation, blush, eyeshadow, eyeliner, mascara, and lip gloss. She also uses a small brush to apply some product to her face.</t>
+  </si>
+  <si>
+    <t>Beauty, Makeup Tutorials</t>
+  </si>
+  <si>
+    <t>Tutorials, How-To Guides, Transformation Videos</t>
+  </si>
+  <si>
+    <t>I'm gonna sit back with a blind. You put my hand in the cough. Can't touch.</t>
+  </si>
+  <si>
+    <t>The video shows a person spearfishing in the ocean off the coast of South Florida. The person is underwater, wearing a wetsuit and mask, and is using a speargun. They initially spot a school of fish, then a parrotfish which they note cannot be speared. Later, they spot and attempt to spear a hogfish, but it swims away. The speaker mentions regulations regarding fish size.</t>
+  </si>
+  <si>
+    <t>Recipes, Cooking, Baking, Food Reviews, Restaurant Tours, Pets, Dog Training, Cat Care, Exotic Animals, Travel, Budget Travel, Luxury Travel, Adventure Travel, Family, Parenting, Single Parenting, Large Family Life, Cars, Car Reviews, Auto Repair, Classic Cars, Fashion, Streetwear, High Fashion, Thrifting, Beauty, Skincare, Makeup Tutorials, Hair Styling, Fitness, Weightlifting, Yoga, CrossFit, Technology, Gadget Reviews, Coding Tutorials, Tech News, Gaming, Game Reviews, Let's Plays, Esports, Music, Instrument Tutorials, Music Production, Song Covers, DIY/Crafts, Home Improvement, Upcycling, Arts and Crafts, Education, Language Learning, Science Experiments, History Lessons, Humor, Stand-up Comedy, Pranks, Sketch Comedy, Lifestyle, Minimalism, Luxury Living, Van Life, Personal Finance, Budgeting Tips, Investing Basics, Cryptocurrency, Mental Health, Meditation, Therapy Insights, Self-Care Tips, Gardening, Urban Gardening, Permaculture, Plant Care, Sports, Sports Analysis, Athlete Interviews, Training Tips, Books, Book Reviews, Author Interviews, Reading Challenges, Art, Painting Tutorials, Digital Art, Art History, Photography, Camera Reviews, Photo Editing Tutorials, Photography Tips, Environmental, Sustainability Tips, Climate Change Awareness, Zero Waste Living, Politics, Political Analysis, Activism, Civic Education, Spirituality, Meditation Guides, Religious Teachings, New Age Practices, Business, Entrepreneurship, Marketing Tips, Small Business Advice, Science, Space Exploration, Biology Facts, Chemistry Experiments, Film/TV, Movie Reviews, TV Show Recaps, Behind-the-Scenes, Fashion, Outfit Ideas, Fashion History, Sustainable Fashion</t>
+  </si>
+  <si>
+    <t>Vlogs, Day-in-the-Life, Tutorials, Reviews, Challenges, Storytelling, How-To Guides, Point-of-View (POV)</t>
+  </si>
+  <si>
+    <t>Creator-centric, Full body, Face only, Partial visibility</t>
+  </si>
+  <si>
+    <t>POV, Catching My Food, Location: South Florida</t>
+  </si>
+  <si>
+    <t>Creator, Food, Technology, Text/Graphics, Nature, Vehicles, Props</t>
+  </si>
+  <si>
+    <t>KRATKA</t>
+  </si>
+  <si>
+    <t>Catching My Food. Location: South Florida. Whenever you're hunting, you want to make sure that you're hiding behind any rock or coral so that the fish that you want to eat doesn't see you. I locked onto a large parrot fish and while these guys do look big and tasty, you're not allowed to spear them because they're protected here in Florida. As I was following it, I ran out of air, so I decided to swim to the top and from the top of the water, I saw a massive school of fish. Sometimes there's something tasty hiding in the school, so I went down to take a closer look, but when I didn't find anything, I waved them off and continued what could be my breakfast. I stumbled across the most delicious fish in the sea, which is a lionfish. And when I took aim, I needed to make sure that I hit it good because these guys are destroying South Florida. That one fish wasn't going to be enough to feed me though, so I had to be extra stealthy as I went across the bottom of the sea, looking for what else I can eat. I swam up to this hogfish that thought it was completely camouflaged. And when it realized that I saw it, it turned its camouflage off and slowly started swimming away. Well, this fish is delicious. It has to be a minimum of 16 inches, and this guy is just a little too small.</t>
+  </si>
+  <si>
+    <t>The video demonstrates how to create simple desktop applications with a cute aesthetic. It shows examples of an egg timer and a tic-tac-toe game, and mentions a calendar application. The creator explains that they have a full step-by-step tutorial on their YouTube channel covering setup to coding and styling, and that template code is available on GitHub. The video ends with the creator waving and saying goodbye.</t>
+  </si>
+  <si>
+    <t>Technology, Coding Tutorials</t>
+  </si>
+  <si>
+    <t>Tutorials, How-To Guides, Storytelling</t>
+  </si>
+  <si>
+    <t>Creator-centric, Face only, Full body, Occasional appearances</t>
+  </si>
+  <si>
+    <t>Easy cute little desktop app tutorial, desktop applications, Egg Timer &lt;3, what are you making today?, Soft Boiled, like these?, Tic tac toe, This is how to make, your very first desktop application, super beginner friendly, youtube: nashallery, preview, How to code ur first little desktop app from scratch (beginner friendly &amp; cozy aesthetic :3), I have a full step-by-step tutorial, from how to set up, everything that you'll need, n-app-template, to coding and styling, your very first desktop app, github: nasha-wanich, Or if you just want to, grab a template code, Electron App Template, IMPORTANT: Click &amp; open README.md for full instructions, A simple ElectronJS starter template for building desktop apps, This repo is part of my YouTube tutorial on setting up your first simple, beginner-friendly, and easy to customize for any app., Tutorial Video, This repo is a part of my Youtube tutorial on how to build a simple desktop app from scratch., This repo is only for the basic Electron template that you'll need if you are interested in a beginner demonstration tutorial too. See the link below:, https://github.com/nasha-wanich/little-calendar, See Youtube video:, Design File, Figma design file for this project: https://www.figma.com/file/..., What's in this repo, Little Calendar, A simple desktop calendar app built with HTML, CSS, JavaScript and Electron. This repo is part of my YouTube tutorial series on building your first Electron app., happy coding!, bye &lt;3</t>
+  </si>
+  <si>
+    <t>Creator, Technology, Text/Graphics, Music/Sound, Props, Screen Recordings, Home Decor</t>
+  </si>
+  <si>
+    <t>Figma, YouTube, GitHub</t>
+  </si>
+  <si>
+    <t>Easy cute little desktop app tutorial.
+Make desktop applications.
+Like these?
+This is how to make your very first desktop application.
+Super beginner friendly.
+Youtube: nashallery.
+I have a full step-by-step tutorial on my YouTube.
+From how to set up everything that you'll need.
+To coding and styling your very first desktop app.
+Github: nasha-wanich.
+Or if you just want to grab a template code.
+Electron app template.
+Important: Click and open README.md for full instructions.
+A simple ElectronJS starter template for building desktop apps.
+This repo is part of my YouTube tutorial on setting up your first simple, beginner-friendly, and easy to customize for any app.
+Tutorial Video.
+This repo is part of my YouTube tutorial on how to build a simple desktop app from scratch.
+This repo is only for the basic Electron template that you'll need if you are interested in a beginner demonstration tutorial too. See the link below:
+https://github.com/nasha-wanich/little-calendar
+See YouTube video.
+Design file.
+Figma design file for this project: https://www.figma.com/file/node-id=0-1&amp;p=f.
+What's in this repo.
+Little Calendar.
+A simple desktop calendar app built with HTML, CSS, JavaScript and Electron. This repo is part of my YouTube tutorial series on building your first Electron app.
+Happy coding!
+Bye &lt;3</t>
+  </si>
+  <si>
+    <t>The video shows a person creating a snowflake ornament from cardboard tubes. They cut and fold the cardboard tubes to form the shape of a snowflake. Then, they use a gold marker to add details to the snowflake. Finally, the completed snowflake ornament is hung with a red ribbon in front of a laptop displaying a fireplace scene.</t>
+  </si>
+  <si>
+    <t>TikTok</t>
+  </si>
+  <si>
+    <t>Creator, Text/Graphics, Music/Sound, Props, DIY Projects</t>
+  </si>
+  <si>
+    <t>I've corrected it,
+And then say
+I love you, I mean it
+And then say
+Now I know what a fool I've been
+But if you kissed me now
+I know you'd fool me again</t>
+  </si>
+  <si>
+    <t>The video shows various scenes related to education, including someone reading in a library, a close-up of grades with 'A' marks, a person working on a laptop and drinking wine, a person carrying books, and someone sleeping on a stack of study books. White text overlay on all clips reads "remember education is power".</t>
+  </si>
+  <si>
+    <t>Occasional appearances</t>
+  </si>
+  <si>
+    <t>remember education is power</t>
+  </si>
+  <si>
+    <t>The video shows a group of young men in matching team jackets. One man speaks about what he would do if he didn't win, and then the group is shown holding a trophy. The video ends with close-ups of two of the men holding smaller golden objects.</t>
+  </si>
+  <si>
+    <t>['Gaming', 'Esports']</t>
+  </si>
+  <si>
+    <t>['Vlogs', 'Day-in-the-Life', 'Storytelling']</t>
+  </si>
+  <si>
+    <t>['Creator-centric', 'Full body', 'Group content', 'Face only']</t>
+  </si>
+  <si>
+    <t>Titles/Headlines, Usernames/Handles</t>
+  </si>
+  <si>
+    <t>Creator, Text/Graphics, Food, Technology, Clothing/Fashion Items</t>
+  </si>
+  <si>
+    <t>A woman is shown in a gym performing a deadlift. She approaches the barbell, grips it, and lifts it off the ground. She then moves into a squat position with the barbell overhead and stands back up. Finally, she lowers the barbell to the ground.</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Workout Routines</t>
+  </si>
+  <si>
+    <t>Creator, Text/Graphics, Music/Sound, Food, Technology, Fitness Equipment</t>
+  </si>
+  <si>
+    <t>Hold it.</t>
+  </si>
+  <si>
+    <t>A person eats chicken wings and fries with dipping sauces. They are shown dipping various food items into sauces and eating them. The video includes a rating of 8.8/10.</t>
+  </si>
+  <si>
+    <t>Recipes, Cooking, Food Reviews</t>
+  </si>
+  <si>
+    <t>Vlogs, Taste Tests</t>
+  </si>
+  <si>
+    <t>POV, Rate: 8.8/10, Eat Wingstop for the whole day!</t>
+  </si>
+  <si>
+    <t>Creator, Food, Text/Graphics, Props</t>
+  </si>
+  <si>
+    <t>Food and beverage brands</t>
+  </si>
+  <si>
+    <t>Eat Wingstop for the whole day! This might cause some other things to stop, but let's eat. Food hack time. I know you want to bite. Rate 8.8 out of 10.</t>
+  </si>
+  <si>
+    <t>The video shows a person demonstrating how to curl their hair using a curling iron. They section their hair and use the curling iron to create waves. The person also sprays hairspray on their finished curls.</t>
+  </si>
+  <si>
+    <t>Tutorials, How-To Guides</t>
+  </si>
+  <si>
+    <t>how i curl my hair</t>
+  </si>
+  <si>
+    <t>Beauty brands</t>
+  </si>
+  <si>
+    <t>how I curl my hair, big black boots, long brown hair, and she's so sweet with her, yeah back to stand, I know when, yeah, I know when, you're gonna be my girl. I'm gonna be my girl.</t>
+  </si>
+  <si>
+    <t>The video shows a model walking on a runway, showcasing an elaborate blue outfit with scale-like patterns and wing-like structures on the shoulders. The lighting is predominantly blue.</t>
+  </si>
+  <si>
+    <t>Full body</t>
+  </si>
+  <si>
+    <t>No audio.</t>
+  </si>
+  <si>
+    <t>The video shows a person playing the piano and demonstrates how to play the song "champagne coast" by blood orange. Text overlays display chord names and instructions.</t>
+  </si>
+  <si>
+    <t>['Music', 'Education']</t>
+  </si>
+  <si>
+    <t>['Hands-only', 'Voice-only']</t>
+  </si>
+  <si>
+    <t>Titles/Headlines, Product Names, Tutorial Steps</t>
+  </si>
+  <si>
+    <t>Pearl River</t>
+  </si>
+  <si>
+    <t>How to play champagne coast by blood orange.
+Practice and slowly pick in the tempo.
+Should sound like this.</t>
+  </si>
+  <si>
+    <t>A shirtless man lies on his back in a bed filled with a turquoise liquid, appearing to float. He moves his hands slightly and expresses surprise and enjoyment.</t>
+  </si>
+  <si>
+    <t>Creator, Props, Food</t>
+  </si>
+  <si>
+    <t>Wow.
+No way.
+This is exactly what I needed.</t>
+  </si>
+  <si>
+    <t>The creator expresses boredom and decides to learn 1 to 10 in five different languages: French, Russian, Japanese, German, and Italian. They attempt to pronounce the numbers in French, then Russian, and finally German and Italian. The video ends with the creator thanking the viewers.</t>
+  </si>
+  <si>
+    <t>['Education', 'Language Learning']</t>
+  </si>
+  <si>
+    <t>['Vlogs', 'Tutorials']</t>
+  </si>
+  <si>
+    <t>['Creator-centric', 'Face only']</t>
+  </si>
+  <si>
+    <t>Brand Logos, Titles/Headlines, Lower Thirds</t>
+  </si>
+  <si>
+    <t>Creator, Text/Graphics, Technology</t>
+  </si>
+  <si>
+    <t>Hi guys. I'm very bored and have nothing better to do in my life right now. So, what's more fun than to watch me learn one through 10 in five different languages. French, Russian, Japanese, German and Italian. Let's start with French. Uno, deux, trois, quatre, cinq, six, sept, huit, neuf, dix. I'm going to learn the only three that I know, so that's uno, dos, tres, quatre, cinq, six, sept, huit, neuf, dix. I'm going to try Japanese. Ichi, ni, san, shi, go, roku, nana, hachi, kyu, ju. My pronunciation might be like very off, but. Let's do German now. Eins, zwei, drei, vier, f√ºnf, sechs, sieben, acht, neun, zehn. Last but not least is Italian. I love Italy so much. Uno, due, tre, quattro, cinque, sei, sette, otto, nove, dieci. That concludes my video. Thank you guys so much for watching. If you guys liked this, I feel a lot of practice to do, but I would like to choose one of these languages and actually learn it. But yeah. Bye bye.</t>
+  </si>
+  <si>
+    <t>The video shows the interior of an airplane's first-class cabin. A flight attendant in uniform opens a door to reveal a private suite. The suite features a reclining seat, a vanity area with a mirror and lit makeup station, a television screen displaying a welcome message, and a pair of headphones on a desk.</t>
+  </si>
+  <si>
+    <t>Vlogs, Tutorials, Room Tours</t>
+  </si>
+  <si>
+    <t>Welcome, i, c</t>
+  </si>
+  <si>
+    <t>Creator, Technology, Food, Clothing/Fashion Items, Home Decor, Props, Text/Graphics, Music/Sound</t>
+  </si>
+  <si>
+    <t>This video explains how to make your first beat in three simple steps. It covers starting with a basic drum kit, laying down a kick and snare pattern, adding extra kicks for bounce, and then adding hi-hats on every beat. The video then explains how to create a bassline using a synth bass preset and suggests using only three or four notes for simplicity. Finally, it encourages viewers to add a melody using an instrument like a piano or synth, and then to create and share their first beat.</t>
+  </si>
+  <si>
+    <t>Music Production, DIY/Crafts</t>
+  </si>
+  <si>
+    <t>POV, making your first beat, can be intimidating, but it's easier than, you think, today, I'm breaking it down into, three simple steps, anyone can follow, step one, start from the drums, pick a basic drum kit, go for a kick, and a hi-hat, lay down a basic, kick and snare pattern, start with the kick, on beat 1, and the snare on beat 3, if you want to add a bounce, add some extra kicks, and add the hi-hats, on every beat, nothing fancy, but it does have a groove, the bassline is what, makes your beat, feel powerful, start with a synth bass, I like the wonk bass, preset on Ableton, keep your bassline, simple, it's your first beat, I'll use the notes A, C and G, now add a melody, pick an instrument, like piano or a synth, I'll just pick piano, and here's a trick, try to stick to only, 3 or 4 notes, go make your first beat, post it and tag me, I want to hear, what you create</t>
+  </si>
+  <si>
+    <t>Creator, Technology, Music/Sound, Text/Graphics</t>
+  </si>
+  <si>
+    <t>Making your first beat can be intimidating but it's easier than you think. Today I'm breaking it down into three simple steps anyone can follow. Step one: start from the drums. Pick a basic drum kit, go for a kick and a hi-hat. Lay down a basic kick and snare pattern. Start with the kick on beat 1 and the snare on beat 3. If you want to add a bounce, add some extra kicks and add the hi-hats on every beat. Nothing fancy, but it does have a groove. The bassline is what makes your beat feel powerful. Start with a synth bass. I like the Wonk Bass preset on Ableton. Keep your bassline simple, it's your first beat. I'll use the notes A, C and G. Now add a melody. Pick an instrument like piano or a synth. I'll just pick piano. And here's a trick: try to stick to only 3 or 4 notes. Go make your first beat, post it and tag me. I want to hear what you create.</t>
+  </si>
+  <si>
+    <t>The video shows an interior view of a restaurant with people dining at tables. Through a large window, the Manhattan Bridge and a body of water are visible. The lighting is dim, with candles on the tables and pendant lights overhead. There is text on the screen that reads "the vibe at this restaurant in brooklyn" and a username at the bottom.</t>
+  </si>
+  <si>
+    <t>Travel, Food Reviews</t>
+  </si>
+  <si>
+    <t>Creator, Food, Text/Graphics, Urban Environment, Home Decor</t>
+  </si>
+  <si>
+    <t>the vibe at this restaurant in brooklyn</t>
+  </si>
+  <si>
+    <t>The video showcases a variety of steakhouse dishes including a Banijr Cheese Burger, Premium Meat Platter, Angus Short Ribs with Mash, Truffle Mushroom Pasta with Ribeye Steak, and Oyster Blade Steak with Fried Rice. Several drinks are also visible, and the text overlay indicates the restaurant is Muslim-owned and HALAL.</t>
+  </si>
+  <si>
+    <t>Vlogs, Montages, How-To Guides</t>
+  </si>
+  <si>
+    <t>This Muslim-owned HALAL steakhouse is a MUST try, heyyitskey, Chiko Pollo Original, Banijr Cheese Burger, Premium Meat Platter, Angus Short Ribs with Mash, Truffle Mushroom Pasta with Ribeye Steak, Oyster Blade Steak with Fried Rice</t>
+  </si>
+  <si>
+    <t>Creator, Product, Text/Graphics, Music/Sound, Food, Home Decor</t>
+  </si>
+  <si>
+    <t>No blurry, no blurry. No body else make me feel like no blurry, no new brand. No body else make me feel like no blurry, no new brand. No body else make me feel like no blurry, no new brand. No body else make me feel like no blurry, no new brand. No body else make me feel like no blurry, no new brand. No body else make me feel like no blurry, no new brand.</t>
+  </si>
+  <si>
+    <t>Four individuals are shown posing and dancing. The person in the foreground, wearing a white t-shirt and black pants, is the focus. Two other individuals are behind them, and a fourth joins at the end. The video appears to be a short-form clip, possibly for social media.</t>
+  </si>
+  <si>
+    <t>Shorts/Reels/TikToks</t>
+  </si>
+  <si>
+    <t>Creator, Clothing/Fashion Items, Text/Graphics</t>
+  </si>
+  <si>
+    <t>Hey y'all, let's get this fit off
+watch
+kicking off my peers, my influence
+watch
+all my your let us skip</t>
+  </si>
+  <si>
+    <t>Two individuals are shown on yoga mats in a studio. One, on the left, is performing a sequence of movements, while the other, on the right, demonstrates a different set of movements. On-screen text indicates "Pilates vs Yoga" and "Sun Salutation."</t>
+  </si>
+  <si>
+    <t>Fitness, Yoga</t>
+  </si>
+  <si>
+    <t>Sun Salutation, Pilates, vs, Yoga, SOULIFT</t>
+  </si>
+  <si>
+    <t>Creator, Text/Graphics, Fitness Equipment, Home Decor</t>
+  </si>
+  <si>
+    <t>TESTING_4 Issues</t>
+  </si>
+  <si>
+    <t>Not picking up on brand logos on  clothing, sometimes on objects</t>
+  </si>
+  <si>
+    <t>On screen text attribute still picks up a bunch of transcript or words spoken in the video</t>
+  </si>
+  <si>
+    <t>Not recognising upper body or half body</t>
+  </si>
+  <si>
+    <t>Still accidentally leaves out some words in the transcription</t>
+  </si>
+  <si>
+    <t>It's recognising music playing as part of the transcription attribute</t>
+  </si>
+  <si>
+    <t>Content theme can either overcategorise or undercategorise</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>A makeup artist applies a full face of makeup on a model, focusing on eye makeup, foundation, contour, blush, and lipstick. The video demonstrates various techniques for achieving a glamorous look.</t>
+  </si>
+  <si>
+    <t>['Beauty']</t>
+  </si>
+  <si>
+    <t>['Tutorials', 'Demonstration', 'How-To Guides']</t>
+  </si>
+  <si>
+    <t>['Creator-centric', 'Upper Body']</t>
+  </si>
+  <si>
+    <t>Huda Beauty, MAC</t>
+  </si>
+  <si>
+    <t>Honestly, this is probably one of my favorite glam looks that I've done so far. Keep watching to see how I've done it. Also guys, I'm offering one-on-one lessons. So reach out to me on Instagram if you're interested. First things first, always prepping the eyelids with some concealer, setting it down with powder. I'm just going in with a few transition shades. I'm focusing them on the outer corner of the eye and then just slightly dragging it through. I build them up first to the intensity that I like before I move on to the darker color. Now I'm intensifying the eye makeup with some black shadow and a bit of liner, smudging it out and making sure it's all blended. I've also made custom lashes using individual lashes from Shein. At this point, her eyes are still matte because I wasn't sure if I wanted to add shimmer. I do add shimmer in the end. For foundation, I used Haus Labs and Estee Lauder, and blush. I've used Morphe and the Made by Meetrow Curve case. This is like my favorite part of the makeup because I feel like you can really see everything coming together now with the contour and the concealer and the blush placement. It's looking so flawless and smooth. I'm just bronzing her up now. I'm just reinforcing everything that I've done with cream, but with powder now. With the blush, I'll use like five different blushes. I'll use a matte blush, a shimmery blush. I just find that you get the perfect finish like that. For her lower lash line, I'm just using the same colors that I used for her eyeshadow. For the shimmer, I used the Haus Labs highlighter and just a bit of gloss from Maybelline. Honestly, this is just one of my favorite glams. It's just so stunning, so elegant, still glam without being too crazy. I'm obsessed. I'm really just reinforcing everything that I've done with cream, but with powder now. With the blush, I'll use like five different blushes. I'll use a matte blush, a shimmery blush. I just find that you get the perfect finish like that. For her lower lash line, I'm just using the same colors that I used for her eyeshadow. For the shimmer, I used the Haus Labs highlighter and just a bit of gloss from Maybelline. Honestly, this is just one of my favorite glams. It's just so stunning, so elegant, still glam without being too crazy. I'm obsessed.</t>
+  </si>
+  <si>
+    <t>The video shows a woman applying makeup. She starts with a bare face and then applies blush and lipstick, completing a glamorous look.</t>
+  </si>
+  <si>
+    <t>['Beauty', 'Skincare', 'Makeup Tutorials']</t>
+  </si>
+  <si>
+    <t>['Tutorials', 'Get Ready With Me', 'Demonstration']</t>
+  </si>
+  <si>
+    <t>['Face only']</t>
+  </si>
+  <si>
+    <t>Beauty Products</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>I'm gonna sit back with a blind. You put my hand in the cough. Can't can't touch.</t>
+  </si>
+  <si>
+    <t>Car Racing.mp4</t>
+  </si>
+  <si>
+    <t>https://linqia-video-analyser-bucket.s3.us-east-2.amazonaws.com/Videos%20for%20Analysis/Car%20Racing.mp4</t>
+  </si>
+  <si>
+    <t>Two cars are engaged in a drift race. One car, identified as the Formula Drift Pro Championship, is in the lead. The other car, driven by Jonathan Castro, is attempting to catch up and overtake. The leading car experiences tire fire as it drifts, described as "literally figuratively on fire."</t>
+  </si>
+  <si>
+    <t>['Sports']</t>
+  </si>
+  <si>
+    <t>['Transitions', 'Demonstration']</t>
+  </si>
+  <si>
+    <t>['No visible people']</t>
+  </si>
+  <si>
+    <t>Brand Logos, Titles/Headlines, Screen Overlays</t>
+  </si>
+  <si>
+    <t>Vehicles, Text/Graphics</t>
+  </si>
+  <si>
+    <t>['Sports equipment brands']</t>
+  </si>
+  <si>
+    <t>Formula Drift</t>
+  </si>
+  <si>
+    <t>Here we go. The Royal. Jonathan Castro. Who's coming out on top? Round three. The Formula Drift Pro Championship. Ben Noah initiates. Castro works his way up to the top. Not as close. Ben Noah, settled in. Right there, bathing in the smoke. Castro, tire fire, early on. Transitions into the second, inside clip. Ben Noah. Finding that side brake. Ripping on home. He is on fire. Literally and figuratively.</t>
+  </si>
+  <si>
+    <t>A diver is shown spearfishing in the ocean. The diver initially hunts a parrotfish but notes it is protected. The diver then searches for other food sources and successfully spearfishes a hogfish, which is described as delicious but slightly too small due to regulations.</t>
+  </si>
+  <si>
+    <t>['Recipes', 'Food']</t>
+  </si>
+  <si>
+    <t>['Vlogs', 'Demonstration']</t>
+  </si>
+  <si>
+    <t>['Full body', 'Creator-centric']</t>
+  </si>
+  <si>
+    <t>Food, Technology, Nature, Creator</t>
+  </si>
+  <si>
+    <t>Kratka</t>
+  </si>
+  <si>
+    <t>Catching my food. Whenever you're hunting, you want to make sure that you're hiding behind any rock or coral so that the fish that you want to eat doesn't see you. I locked onto a large parrot fish and while these guys do look big and tasty, you're not allowed to spear them because they're protected here in Florida. As I was following it, I ran out of air, so I decided to swim to the top. And from the top of the water, I saw a massive school of fish. Sometimes there's something tasty hiding in the school, so I went down to take a closer look. But when I didn't find anything, I waved them off and continued my search for what could be my breakfast. I stumbled across the most delicious fish in the sea, which is a lionfish. And when I took aim, I needed to make sure that I hit it good because these guys are destroying South Florida. That one fish wasn't going to be enough to feed me though. So I had to be extra stealthy as I went across the bottom of the sea floor looking for what else I can eat. I swam up to this hogfish that thought it was completely camouflage. And when it realized that I saw it, it turned its camouflage off and slowly started swimming away from me. Well, this fish is delicious. It has to be a minimum of 16 inches and this guy is just a little too small.</t>
+  </si>
+  <si>
+    <t>The video shows examples of cute desktop applications, such as an egg timer and a tic-tac-toe game, with a pink and purple aesthetic. It then transitions to a screen recording of a YouTube video tutorial on how to code a first desktop app from scratch, covering setup, coding, and styling. The creator also mentions a GitHub repository with template code for those who want to grab it directly and offers a full step-by-step tutorial on YouTube.</t>
+  </si>
+  <si>
+    <t>['Technology', 'DIY/Crafts']</t>
+  </si>
+  <si>
+    <t>['Tutorials', 'Vlogs', 'Montages']</t>
+  </si>
+  <si>
+    <t>['Creator-centric', 'Face only', 'Upper Body']</t>
+  </si>
+  <si>
+    <t>Titles/Headlines, Usernames/Handles, Call-to-Action Buttons</t>
+  </si>
+  <si>
+    <t>Creator, Technology, Text/Graphics, Screen Recordings</t>
+  </si>
+  <si>
+    <t>Easy cute little desktop app tutorial. Desktop applications like these. This is how to make your very first desktop application. Super beginner friendly. Youtube: nashallery. I have a full step-by-step tutorial on my YouTube from how to set up everything that you'll need to coding and styling your very first desktop app. Or if you just want to grab a template code. Github: nasha-wanich. The template code. They are also on my GitHub. Happy coding! Bye &lt;3</t>
+  </si>
+  <si>
+    <t>A person is crafting a snowflake ornament from a toilet paper roll. They cut the roll into strips, fold them, and assemble them into a snowflake shape. The person then uses a gold marker to add detail to the snowflake and attaches a red ribbon for hanging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   "Tutorials",
+    "Demonstration"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Hands-only"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DIY Projects",
+    "Text/Graphics"</t>
+  </si>
+  <si>
+    <t>The video shows several short clips of individuals engaged in educational activities. These include reading books in a library, looking at academic grades, studying on a laptop, carrying books, and a person sleeping on a stack of textbooks. A consistent overlay of text reads "remember education is power."</t>
+  </si>
+  <si>
+    <t>['Education', 'Study', 'Student Life']</t>
+  </si>
+  <si>
+    <t>['Montages', 'Shorts/Reels/TikToks']</t>
+  </si>
+  <si>
+    <t>['Face only', 'Upper Body', 'Partial visibility']</t>
+  </si>
+  <si>
+    <t>Quotes, Titles/Headlines</t>
+  </si>
+  <si>
+    <t>Text/Graphics, Books, Technology, Students</t>
+  </si>
+  <si>
+    <t>Emirates.mp4</t>
+  </si>
+  <si>
+    <t>https://linqia-video-analyser-bucket.s3.us-east-2.amazonaws.com/Videos%20for%20Analysis/Emirates.mp4</t>
+  </si>
+  <si>
+    <t>The video showcases pilot terminology, beginning in a cockpit where a pilot asks "Do you speak aviation?" and transitions to inside the plane cabin. A pilot walks through the cabin, and the term "PAX" is shown with its definition "PASSENGERS." Next, a pilot in the cockpit explains "ILS" as "INSTRUMENT LANDING SYSTEM." A pilot in a darker uniform explains "MDA" as "MINIMUM DESCENT ALTITUDE." Finally, a pilot inside the cockpit explains "ETD" as "ESTIMATED TIME OF DEPARTURE." The video concludes with a pilot on the tarmac by a jet engine, with "GS" defined as "GROUND SPEED."</t>
+  </si>
+  <si>
+    <t>['Aviation', 'Education']</t>
+  </si>
+  <si>
+    <t>['Tutorials', 'Demonstration', 'Educational Animations']</t>
+  </si>
+  <si>
+    <t>['Face only', 'Full body', 'Upper Body']</t>
+  </si>
+  <si>
+    <t>Titles/Headlines, Tutorial Steps</t>
+  </si>
+  <si>
+    <t>Creator, Technology, Text/Graphics, Transportation</t>
+  </si>
+  <si>
+    <t>['Travel/hospitality brands']</t>
+  </si>
+  <si>
+    <t>Do you speak aviation?
+Let's find out.
+PAX.
+PASSENGERS.
+ILS.
+INSTRUMENT LANDING SYSTEM.
+MDA.
+MINIMUM DESCENT ALTITUDE.
+ETD.
+ESTIMATED TIME OF DEPARTURE.
+GS.
+GROUND SPEED.</t>
+  </si>
+  <si>
+    <t>The video shows a group of young men, likely esports players, in team apparel. One person is seen writing on a large board with many game titles listed. The group is then shown posing with a trophy and smaller golden awards.</t>
+  </si>
+  <si>
+    <t>['Gaming', 'Sports']</t>
+  </si>
+  <si>
+    <t>['Vlogs', 'Montages']</t>
+  </si>
+  <si>
+    <t>Creator, Text/Graphics, Food, Sports Equipment, Technology, Music/Sound</t>
+  </si>
+  <si>
+    <t>['Tech brands', 'Fashion brands']</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz</t>
+  </si>
+  <si>
+    <t>A woman in a gym prepares to lift a heavily weighted barbell. She crouches down, grips the bar, and then stands up with the weight overhead, holding the squat position before standing fully upright.</t>
+  </si>
+  <si>
+    <t>['Fitness', 'Sports']</t>
+  </si>
+  <si>
+    <t>['Demonstration', 'Workout Routines']</t>
+  </si>
+  <si>
+    <t>Creator, Fitness Equipment, Food</t>
+  </si>
+  <si>
+    <t>No audio</t>
+  </si>
+  <si>
+    <t>The video shows a young man in a car surrounded by a large amount of Wingstop food, including chicken wings, tenders, fries, and corn. He is seen dipping various food items into ranch and cheese sauces, eating them with expressive reactions. He also combines different food items with sauces before eating.</t>
+  </si>
+  <si>
+    <t>['Food', 'Recipes']</t>
+  </si>
+  <si>
+    <t>['Mukbang', 'Product Demos']</t>
+  </si>
+  <si>
+    <t>['Creator-centric', 'Full body']</t>
+  </si>
+  <si>
+    <t>Quotes, Rating</t>
+  </si>
+  <si>
+    <t>Food, Creator, Technology</t>
+  </si>
+  <si>
+    <t>Eat Wingstop for the whole day!
+This might cause some other things to stop, but
+let's eat.
+food hack time
+Rate 8.8/10</t>
+  </si>
+  <si>
+    <t>A woman demonstrates how to curl her hair using a curling iron. She applies hairspray and then styles her long, wavy hair.</t>
+  </si>
+  <si>
+    <t>['Tutorials', 'Demonstration']</t>
+  </si>
+  <si>
+    <t>['Full body']</t>
+  </si>
+  <si>
+    <t>Creator, Technology, Beauty Products</t>
+  </si>
+  <si>
+    <t>How I curl my hair.
+Big black boots.
+Long brown hair.
+She's so sweet.
+Yeah, back then.
+But you were with another man.
+I know where I am.
+I wanna see.
+I am now here and God.
+Oh, I can see.
+I know where I am.
+I'm gonna be my girl.</t>
+  </si>
+  <si>
+    <t>A model walks down a runway wearing a blue, scaled, avant-garde outfit with wing-like shoulder details. The lighting is predominantly blue.</t>
+  </si>
+  <si>
+    <t>['Fashion']</t>
+  </si>
+  <si>
+    <t>['Demonstration']</t>
+  </si>
+  <si>
+    <t>Clothing/Fashion Items, Creator, Text/Graphics</t>
+  </si>
+  <si>
+    <t>This video demonstrates how to play the song "Champagne Coast" by Blood Orange on a piano. The footage shows a close-up of a person's hands playing the keys, with on-screen text indicating the notes being played and providing brief instructions. The video covers practicing and adjusting the tempo to achieve the correct sound.</t>
+  </si>
+  <si>
+    <t>['Music', 'Instrument Tutorials']</t>
+  </si>
+  <si>
+    <t>['Tutorials', 'Demonstration', 'How-To Guides', 'Tips and Tricks']</t>
+  </si>
+  <si>
+    <t>['Hands-only', 'Partial visibility']</t>
+  </si>
+  <si>
+    <t>Tutorial Steps, Titles/Headlines</t>
+  </si>
+  <si>
+    <t>Creator, Music/Sound, Technology, Text/Graphics</t>
+  </si>
+  <si>
+    <t>How to play champagne coast by blood orange. Now together. Practice and slowly pick in the tempo. Should sound like this.</t>
+  </si>
+  <si>
+    <t>A shirtless man lies back and floats on a bed filled with a translucent blue liquid, appearing to relax.</t>
+  </si>
+  <si>
+    <t>['Lifestyle']</t>
+  </si>
+  <si>
+    <t>['Vlogs', 'Day-in-the-Life']</t>
+  </si>
+  <si>
+    <t>Creator, Food</t>
+  </si>
+  <si>
+    <t>Wow.
+This is exactly what I needed.</t>
+  </si>
+  <si>
+    <t>The creator is learning to pronounce numbers 1-10 in different languages. She tries French, Russian, German, and Italian, using online resources and demonstrating her attempts by speaking the numbers and gesturing.</t>
+  </si>
+  <si>
+    <t>['Tutorial', 'Vlogs', 'Demonstration']</t>
+  </si>
+  <si>
+    <t>Titles/Headlines, Subtitles</t>
+  </si>
+  <si>
+    <t>Creator, Technology, Text/Graphics, Food</t>
+  </si>
+  <si>
+    <t>Hi guys. I'm very bored and have nothing better to do with my life right now. So what's more fun than to watch me learn one through 10 in five foreign languages. I'm gonna try my best. Please don't judge. French. Let's start with French. One, two, three, four, five, six, seven, eight, nine, 10. Okay. French numbers one through five. Six, seven, eight, nine, 10. That concludes my video. Thanks so much for watching. If you guys liked the end of this. I feel like I've a lot of practice to do, but I would like to choose one of these languages and actually learn it, but yeah. Bye bye. Okay. This is Russian, btw. I'm gonna try my best. Please don't judge. Ah. Dva. Tri. Chetyre. Pyat. Shest. Sem. Vosem. Devyat. Desyat. Japanese. Ichini, san, shi, go, roku, nana, hachi, ku, ju. My pronunciation might be very off, but let's do German now. Eins, drei, dry, fier, fuf, sechs, sieben, acht, neun, zehn. Do you guys like my hand motions? I was very concentrated. That concludes my video. Thanks so much for watching. If you guys liked the end of this. I feel like I've a lot of practice to do, but I would like to choose one of these languages and actually learn it, but yeah. Bye bye. Okay. This is Russian, btw. I'm gonna try my best. Please don't judge. Ah. Dva. Tri. Chetyre. Pyat. Shest. Sem. Vosem. Devyat. Desyat. Japanese. Ichini, san, shi, go, roku, nana, hachi, ku, ju. My pronunciation might be very off, but let's do German now. Eins, drei, dry, fier, fuf, sechs, sieben, acht, neun, zehn. Do you guys like my hand motions? I was very concentrated. That concludes my video. Thanks so much for watching. If you guys liked the end of this. I feel like I've a lot of practice to do, but I would like to choose one of these languages and actually learn it, but yeah. Bye bye.</t>
+  </si>
+  <si>
+    <t>A flight attendant in uniform opens the door to a private suite on an airplane. The suite features a reclining seat, a desk with a mirror and screen, and headphones. The video pans across the interior of the suite, showcasing its amenities.</t>
+  </si>
+  <si>
+    <t>['Travel']</t>
+  </si>
+  <si>
+    <t>['Upper Body']</t>
+  </si>
+  <si>
+    <t>Creator, Technology, Food, Travel Accessories</t>
+  </si>
+  <si>
+    <t>Med Student Day In Life.mp4</t>
+  </si>
+  <si>
+    <t>https://linqia-video-analyser-bucket.s3.us-east-2.amazonaws.com/Videos%20for%20Analysis/Med%20Student%20Day%20In%20Life.mp4</t>
+  </si>
+  <si>
+    <t>The video follows a medical student through a typical day. It begins with her waking up at 6:30 AM, getting ready, and packing a lunch and snacks. She makes coffee and has a breakfast sandwich on her commute. The day includes lectures from 8 AM to 12 PM, followed by an hour lunch break. The student attends anatomy lab, a study session, and then goes home to shower and eat pasta for dinner. She spends the rest of the evening studying before going to bed around 10:30 PM.</t>
+  </si>
+  <si>
+    <t>['Lifestyle', 'Education']</t>
+  </si>
+  <si>
+    <t>['Vlogs', 'Day-in-the-Life', 'Tutorials']</t>
+  </si>
+  <si>
+    <t>Creator, Food, Technology, Study</t>
+  </si>
+  <si>
+    <t>Hey guys! Today was our second day of lecture in our first year medical student. I'm gonna try to do better because it seems like you guys really like the last video. Today was our second day of lecture. Our dress code is business casual, so I got ready for that in the morning. I packed my lunch, snacks, and made my coffee with this homemade strawberry syrup that one of my classmates made for me, which was so sweet of her. I ate a breakfast sandwich on the drive to school. We had lectures from 8 AM to 12 PM, and then we had an hour of lunch. Today was our first anatomy lab, so everyone changed into their scrubs, which was the coolest experience ever. I'm so grateful we have donors that we get to learn from. After lab, we headed into a study session to review the lectures from this morning for a few hours. And then it was finally time to go home and take a shower. Tyler made dinner for me, I had pasta and salad. And then it was right back to studying for the rest of the night. The amount of content is so overwhelming. It really is like drinking out of a fire hose. You learn so much and just one lecture and it really is like a full-time job, but I'm so lucky and happy to even be in this position, especially since I worked so hard for it. I did some Anki until I went to bed around 10:30 PM. That was my day. Bye.</t>
+  </si>
+  <si>
+    <t>A tutorial on how to make your first beat. The video breaks down the process into three simple steps: starting with drums, adding a bassline, and then adding a melody. The presenter demonstrates how to create a basic drum pattern, select a synth bass preset, and compose a simple melody using a limited number of notes.</t>
+  </si>
+  <si>
+    <t>['Tutorials', 'How-To Guides', 'Demonstration']</t>
+  </si>
+  <si>
+    <t>Making your first beat can be intimidating, but it's easier than you think. Today, I'm breaking it down into three simple steps anyone can follow. Step one, start from the drums. Pick a basic drum kit. Go for a kick, a snare, and a hi-hat. Lay down a basic kick and snare pattern. Start with the kick on beat one and the snare on beat three. If you want to add a bounce, add some extra kicks and add the hi-hats on every beat. Nothing fancy, but it does have a groove. The bassline is what makes your beat feel powerful. Start with a synth bass. I like the "wonk bass" preset on Ableton. Keep your bassline simple, it's your first beat. I'll use the notes A, F, C, and G. Now add a melody. Pick an instrument like piano or a synth. I'll just pick piano, and here's a trick: try to stick to only three or four notes. Go make your first beat, post it, and tag me. I want to hear what you create.</t>
+  </si>
+  <si>
+    <t>Parenting Advice.mp4</t>
+  </si>
+  <si>
+    <t>https://linqia-video-analyser-bucket.s3.us-east-2.amazonaws.com/Videos%20for%20Analysis/Parenting%20Advice.mp4</t>
+  </si>
+  <si>
+    <t>The video discusses parental mindset and offers advice on how to shift from a "lazy parent" approach to a more positive and gratitude-focused one. It suggests engaging children in activities like gratitude journals and building micro-systems in the home to foster learning and appreciation.</t>
+  </si>
+  <si>
+    <t>['Family', 'Parenting', 'Mental Health', 'Lifestyle']</t>
+  </si>
+  <si>
+    <t>['Tutorials', 'Talking-Head', 'Demonstration']</t>
+  </si>
+  <si>
+    <t>Creator, Child, Text/Graphics, Technology, Home Decor, Food, Books</t>
+  </si>
+  <si>
+    <t>Stop being a lazy parent. Lazy parenting is not a mindset. They're not focusing on all the things. I'll buy you a toy. I'll give you an iPad. I'll put on cartoons. That's why your kids are messed up. Take all that off the table, focus on positive affirmations. Focus on positive thinking. Have them work on gratitude journals. Have them work on appreciation. Build systems where children learn to learn gratitude and appreciation and watch things shift. We're clogging our children's filters with all the external things. Not a priority on the thing. Not the most important thing.</t>
+  </si>
+  <si>
+    <t>Plant.mp4</t>
+  </si>
+  <si>
+    <t>https://linqia-video-analyser-bucket.s3.us-east-2.amazonaws.com/Videos%20for%20Analysis/Plant.mp4</t>
+  </si>
+  <si>
+    <t>The video demonstrates several methods for propagating Pothos plants. It shows how to take cuttings from a mature plant, and then propagate them by placing them in soil within a takeout container to create a mini-greenhouse, or by placing them in a jar of water.</t>
+  </si>
+  <si>
+    <t>['Gardening', 'Plant Care']</t>
+  </si>
+  <si>
+    <t>Creator, Plants, DIY Projects, Food</t>
+  </si>
+  <si>
+    <t>Anyone who has grown a Pothos knows when you bring home one, you're actually bringing home many, many more. Before you know it, you'll have to give it a trim and you can't just throw those cuttings away. You can grow more plants. You can propagate them right into soil. My favorite method is using an old takeout container to create a mini greenhouse. The easiest method is to just throw them into a jar of water, or you can make a prop box using damp sphagnum moss. Do you have a favorite method?</t>
+  </si>
+  <si>
+    <t>The video shows an interior view of a restaurant with large windows offering a view of a bridge and city skyline at dusk. People are seated at tables, and the ambiance is lit by ambient lighting and candles. Text overlay reads "the vibe at this restaurant in brooklyn".</t>
+  </si>
+  <si>
+    <t>['Lifestyle', 'Travel']</t>
+  </si>
+  <si>
+    <t>['Vlogs', 'Talking-Head']</t>
+  </si>
+  <si>
+    <t>['Occasional appearances']</t>
+  </si>
+  <si>
+    <t>Food, Home Decor, Text/Graphics, Urban Environment</t>
+  </si>
+  <si>
+    <t>The vibe at this restaurant in Brooklyn
+Something here in me to you</t>
+  </si>
+  <si>
+    <t>This video showcases a variety of dishes at a Muslim-owned HALAL steakhouse. The featured items include a "Banjir Cheese Burger" with fries, a "Premium Meat Platter" with several cuts of steak, "Angus Short Ribs with Mash," "Truffle Mushroom Pasta with Ribeye Steak," and "Oyster Blade Steak with Fried Rice."</t>
+  </si>
+  <si>
+    <t>['Recipes', 'Cooking', 'Food Reviews']</t>
+  </si>
+  <si>
+    <t>['Montages', 'Food', 'Shorts/Reels/TikToks']</t>
+  </si>
+  <si>
+    <t>Food, Text/Graphics</t>
+  </si>
+  <si>
+    <t>Space.mp4</t>
+  </si>
+  <si>
+    <t>https://linqia-video-analyser-bucket.s3.us-east-2.amazonaws.com/Videos%20for%20Analysis/Space.mp4</t>
+  </si>
+  <si>
+    <t>This video features a montage of various animated space scenes, including nebulae, planets, and galaxies, rendered with vibrant colors and particle effects. The visuals appear to be computer-generated and are presented in a rapid sequence, concluding with the TikTok Lite logo.</t>
+  </si>
+  <si>
+    <t>['Space']</t>
+  </si>
+  <si>
+    <t>['Montages', 'Graphics-heavy']</t>
+  </si>
+  <si>
+    <t>Brand Logos, Usernames/Handles</t>
+  </si>
+  <si>
+    <t>Technology, Artwork, Text/Graphics</t>
+  </si>
+  <si>
+    <t>A group of four young women pose and dance in a stylish, indoor setting, showcasing their streetwear fashion. The video features quick cuts and upbeat music.</t>
+  </si>
+  <si>
+    <t>['Montages', 'Transitions', 'Shorts/Reels/TikToks']</t>
+  </si>
+  <si>
+    <t>Clothing/Fashion Items, Text/Graphics</t>
+  </si>
+  <si>
+    <t>POV: the whole group can dress.
+When you're in your fashion era.
+This is your sign to dress up.
+Fashion week is all year round.</t>
+  </si>
+  <si>
+    <t>Study Motivation.mp4</t>
+  </si>
+  <si>
+    <t>https://linqia-video-analyser-bucket.s3.us-east-2.amazonaws.com/Videos%20for%20Analysis/Study%20Motivation.mp4</t>
+  </si>
+  <si>
+    <t>A person is studying at a desk with a laptop and tablet. The room is lit by pink neon lighting. Handwritten notes and papers are spread across the desk. On-screen text offers motivational messages about achieving goals through hard work and perseverance.</t>
+  </si>
+  <si>
+    <t>['Study', 'Academics', 'Motivation']</t>
+  </si>
+  <si>
+    <t>['Storytelling', 'Motivational Content', 'Text-based', 'Study With Me']</t>
+  </si>
+  <si>
+    <t>['Partial visibility', 'Hands-only']</t>
+  </si>
+  <si>
+    <t>Quotes, Titles/Headlines, Tutorial Steps, Timestamps</t>
+  </si>
+  <si>
+    <t>Creator, Technology, Text/Graphics, Study, Home Decor</t>
+  </si>
+  <si>
+    <t>I promise you if you put your mind to it and you work hard and you never give up and you do not listen to the rejection you can achieve anything that life throws your way</t>
+  </si>
+  <si>
+    <t>Study Prep.mp4</t>
+  </si>
+  <si>
+    <t>https://linqia-video-analyser-bucket.s3.us-east-2.amazonaws.com/Videos%20for%20Analysis/Study%20Prep.mp4</t>
+  </si>
+  <si>
+    <t>The video shows a person preparing for studying. This includes filling a water bottle, organizing pens and notebooks in a drawer, and lighting a candle.</t>
+  </si>
+  <si>
+    <t>['Study']</t>
+  </si>
+  <si>
+    <t>['Tutorial', 'Organization']</t>
+  </si>
+  <si>
+    <t>Text/Graphics, Food, Home Decor, Office Supplies</t>
+  </si>
+  <si>
+    <t>Study Tips.mp4</t>
+  </si>
+  <si>
+    <t>https://linqia-video-analyser-bucket.s3.us-east-2.amazonaws.com/Videos%20for%20Analysis/Study%20Tips.mp4</t>
+  </si>
+  <si>
+    <t>The video shows a person studying for a math exam. It outlines a three-step process: first, making a list of topics to study. Second, using the AI tool "thetawise.ai" to generate short videos reviewing each topic. Third, practicing questions until they can answer them correctly.</t>
+  </si>
+  <si>
+    <t>['Education', 'Study']</t>
+  </si>
+  <si>
+    <t>['Tutorials', 'How-To Guides', 'Tips and Tricks', 'Demonstration']</t>
+  </si>
+  <si>
+    <t>Creator, Technology, Text/Graphics, Education</t>
+  </si>
+  <si>
+    <t>['Educational brands']</t>
+  </si>
+  <si>
+    <t>Thetawise</t>
+  </si>
+  <si>
+    <t>My three-step process to pass any math exam. One, make a list of all the topics you need to study. Two, go to Thetawise.ai, then ask the AI to generate a short video to review each topic. Three, do practice questions until you literally don't get anything wrong. Repeat the last two steps per topic.</t>
+  </si>
+  <si>
+    <t>Two women are demonstrating different sequences of poses on yoga mats in a studio. The video appears to be comparing a Pilates sequence to a Yoga sequence, specifically focusing on the 'Sun Salutation' pose.</t>
+  </si>
+  <si>
+    <t>['Fitness', 'Yoga', 'Lifestyle']</t>
+  </si>
+  <si>
+    <t>['Tutorial', 'Demonstration', 'Montages']</t>
+  </si>
+  <si>
+    <t>Creator, Fitness Equipment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1171,6 +2502,19 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1516,7 +2860,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1534,11 +2878,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1548,9 +2891,17 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1597,7 +2948,96 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="48">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1636,72 +3076,6 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1931,6 +3305,67 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1945,36 +3380,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5B00C484-2FEA-2047-A981-A4C9C0C5483F}" name="Table2" displayName="Table2" ref="A1:M24" totalsRowShown="0" headerRowDxfId="2" dataDxfId="8">
-  <autoFilter ref="A1:M24" xr:uid="{5B00C484-2FEA-2047-A981-A4C9C0C5483F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA8763F6-C861-F04B-B8C4-24428F4154E2}" name="Table1" displayName="Table1" ref="A1:L21" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A1:L21" xr:uid="{FA8763F6-C861-F04B-B8C4-24428F4154E2}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{475EE59A-2751-B440-8A38-5F85B8CE2BAA}" name="video_name" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{362F3F1C-B345-C349-8DC7-20359B537225}" name="video_url" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{92DBF553-DE4A-4048-9CDC-DC4EA0F40DC4}" name="summary" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{C51F1BE4-AAE2-2448-A303-15EC461303AA}" name="content_theme" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{C718EC5E-B98A-7C4C-8A56-37D102081F7D}" name="content_style" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{71D3BF2A-9723-744A-B8AC-5A850707144E}" name="creator_presence" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{BE03E982-5966-3049-A8F7-06A205ABF377}" name="on_screen_text" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{14166438-0C89-5646-B489-AD01C3BAED4C}" name="key_video_elements" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{FF364D28-84FD-E14C-A21E-4802C04ED633}" name="brand_safety" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{6801D553-6738-CC4D-9C3C-ED2B27B21104}" name="brand_type" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{395F1846-D512-B04D-BDA5-E803DAD1E280}" name="brand_names" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{750CD277-7077-574F-9935-4960E1E6D65E}" name="transcript" dataDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FAB55FB9-4A29-3D45-945B-5E6D82B942FD}" name="Table4" displayName="Table4" ref="A1:L30" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:L30" xr:uid="{FAB55FB9-4A29-3D45-945B-5E6D82B942FD}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{38C724F5-9B40-FC4B-A753-68EF85AF3696}" name="video_name" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{24E01940-C14A-C241-942C-F494AEA0F7B1}" name="video_url" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{77A64F6B-D968-B548-AD7A-FC949C21BB96}" name="summary" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{06E32200-3F16-5E47-8765-2A02459C73DB}" name="content_theme" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{DBFBCD99-A4DF-B046-90D3-DADC4B593AC0}" name="content_style" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{B9C0B71B-DE31-3643-9ED7-44FE31F95EF1}" name="creator_presence" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{3B16583B-00DF-C141-A78F-569408558BC1}" name="on_screen_text" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{49F26914-18E3-7844-AF37-F78F6FFF7F87}" name="key_video_elements" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{D3326913-23DB-E341-B9E0-56F678F37033}" name="brand_safety" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{22111CE0-6C5F-C244-BD44-8DBC63C820F9}" name="brand_type" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{6008D92F-E33C-A442-BF89-AFA0B10CB41C}" name="brand_names" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{33D2D4E9-231F-B94B-A478-9E2736499B01}" name="transcript" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5B00C484-2FEA-2047-A981-A4C9C0C5483F}" name="Table2" displayName="Table2" ref="A1:M12" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:M12" xr:uid="{5B00C484-2FEA-2047-A981-A4C9C0C5483F}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{EC1D7316-5BF8-5747-AB25-0A32C5D32913}" name="Video Name" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{A32D9AA5-E848-6846-AB1E-0E6BFB6BEA66}" name="Summary" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{C732009D-B91D-C54A-83F0-FC91D7B20C35}" name="Content Theme " dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{0E2C8F17-1D52-2E49-A9E2-BC298C67571D}" name="Content Style" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{251C5403-389E-0E41-9F3D-8C8EA36418E7}" name="Creator Presence" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{95673441-7C8A-7740-8BC9-61E9C23AF00D}" name="On Screen Text" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{805391BF-AAE8-E446-A7DB-D8A97AB3D46F}" name="Key Elements" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{608BA7D3-58F1-5F42-B4BF-E98666EF7072}" name="Brand Safety" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{F9BC25DA-2321-434D-A258-51DEF8554E80}" name="Brand Type" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{390AE33D-136F-A04A-8CB6-4B51622519CF}" name="Brand Names" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{9D117665-48E9-2F49-9E3B-808210ECEE1A}" name="Transcript" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{31737885-4A72-2F4A-B7AA-191520876648}" name="Overall Score" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{EC1D7316-5BF8-5747-AB25-0A32C5D32913}" name="Video Name" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{A32D9AA5-E848-6846-AB1E-0E6BFB6BEA66}" name="Summary" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{C732009D-B91D-C54A-83F0-FC91D7B20C35}" name="Content Theme " dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{0E2C8F17-1D52-2E49-A9E2-BC298C67571D}" name="Content Style" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{251C5403-389E-0E41-9F3D-8C8EA36418E7}" name="Creator Presence" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{95673441-7C8A-7740-8BC9-61E9C23AF00D}" name="On Screen Text" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{805391BF-AAE8-E446-A7DB-D8A97AB3D46F}" name="Key Elements" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{608BA7D3-58F1-5F42-B4BF-E98666EF7072}" name="Brand Safety" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{F9BC25DA-2321-434D-A258-51DEF8554E80}" name="Brand Type" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{390AE33D-136F-A04A-8CB6-4B51622519CF}" name="Brand Names" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{9D117665-48E9-2F49-9E3B-808210ECEE1A}" name="Transcript" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{31737885-4A72-2F4A-B7AA-191520876648}" name="Overall Score" dataDxfId="20">
       <calculatedColumnFormula array="1">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{CD197DAC-0F34-0F44-878F-D4004EA7A0C1}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{CD197DAC-0F34-0F44-878F-D4004EA7A0C1}" name="Notes" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{25B8CF70-A0CD-9E43-806D-365026EA078A}" name="Table3" displayName="Table3" ref="A14:C19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{25B8CF70-A0CD-9E43-806D-365026EA078A}" name="Table3" displayName="Table3" ref="A14:C19" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A14:C19" xr:uid="{25B8CF70-A0CD-9E43-806D-365026EA078A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F42B7AA0-7FAD-E146-B7AF-88E69AA803AF}" name="Score" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{1D80EB32-A2C4-E440-8577-BB46229B8425}" name="Rating" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00345FDA-C9ED-F94B-ACE5-E75B9E799435}" name="Criteria" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{F42B7AA0-7FAD-E146-B7AF-88E69AA803AF}" name="Score" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{1D80EB32-A2C4-E440-8577-BB46229B8425}" name="Rating" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00345FDA-C9ED-F94B-ACE5-E75B9E799435}" name="Criteria" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2297,13 +3774,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A129F-1A64-4448-921A-AFDEC1545F0E}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="90" zoomScaleNormal="90" workbookViewId="1">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2314,12 +3790,12 @@
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" customWidth="1"/>
     <col min="6" max="6" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="198" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.1640625" customWidth="1"/>
     <col min="8" max="8" width="40.83203125" customWidth="1"/>
     <col min="9" max="9" width="31.33203125" customWidth="1"/>
     <col min="10" max="10" width="23.83203125" customWidth="1"/>
     <col min="11" max="11" width="18.5" customWidth="1"/>
-    <col min="12" max="12" width="159.83203125" customWidth="1"/>
+    <col min="12" max="12" width="144.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -2360,221 +3836,219 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="B7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
@@ -2600,163 +4074,165 @@
         <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>81</v>
+      <c r="C9" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="L9" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="L10" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="L11" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="272" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2766,10 +4242,10 @@
         <v>118</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>120</v>
@@ -2778,199 +4254,201 @@
         <v>121</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="187" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="119" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="L18" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>163</v>
       </c>
@@ -2987,230 +4465,2048 @@
         <v>167</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="119" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="136" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{6CA33320-2D62-F94C-A56E-78F44F35DE4A}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{653E45C6-5342-D34A-A46A-8C471877FD44}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{BCB0224C-8B60-9543-B728-33E049C75341}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{207AC6FD-450B-9647-9D12-C730F39A0991}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{5549A1DF-3C83-1743-A3CB-497DC4229A87}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{4F6159AE-D5C8-4A48-AE6C-D9B710A4094B}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{1DC8768B-31F6-0344-BFA2-891F0E67AC77}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{3D806EF2-3FF5-5542-9D2B-5744B713D348}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{CDEC0926-08DE-C544-B366-9AFAAADF9C2D}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{653E45C6-5342-D34A-A46A-8C471877FD44}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{BCB0224C-8B60-9543-B728-33E049C75341}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{5549A1DF-3C83-1743-A3CB-497DC4229A87}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{4F6159AE-D5C8-4A48-AE6C-D9B710A4094B}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{1DC8768B-31F6-0344-BFA2-891F0E67AC77}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{3D806EF2-3FF5-5542-9D2B-5744B713D348}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{CDEC0926-08DE-C544-B366-9AFAAADF9C2D}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{237A353B-D7B7-9644-A557-20A0351D09B1}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{7B3B3D8B-657C-1A4D-B06E-33180402EA97}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{419E7B60-2D46-8A48-90A8-BD80E1841DB4}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{D839C292-2203-CF4D-A25B-5B62E4D9B98D}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{AB828CA0-E786-B846-B150-5FD7DE646F49}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{F4BA0316-1D06-3B49-B3F4-7C0454B1986E}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{11298BB3-4B0D-1849-9220-66747DB1410E}"/>
+    <hyperlink ref="B5" r:id="rId15" xr:uid="{04EDC2CE-57F0-DA41-A32A-E5D48EF41C41}"/>
+    <hyperlink ref="B15" r:id="rId16" xr:uid="{EAB1ACB2-517D-C44E-9E67-9DD405DF5CCF}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{9F7BB4DA-DA8F-AD40-AB3C-E71258940EDF}"/>
+    <hyperlink ref="B21" r:id="rId18" xr:uid="{9C6AD5AE-7BD1-4743-8516-4E58C15FCD3F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2EE544-FDC0-8C4D-99B0-F1643593A36E}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="93.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="224.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="221" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="238" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{5912D51D-AC4F-4B48-A345-634249EF2705}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{6660AE35-0ED8-0041-8AB8-DAE8204C2CBE}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{2D70FC57-33A5-954B-A1F8-3072C853AD5B}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{46C3E0AC-8CF1-A448-A302-0D5177F441BF}"/>
+    <hyperlink ref="B16" r:id="rId5" xr:uid="{4DDDCA4F-F593-D94C-883C-32300B40682D}"/>
+    <hyperlink ref="B19" r:id="rId6" xr:uid="{02053C1F-425B-964A-8626-0723A29CF2C5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4D080C-D0D9-A34F-A505-32FCAC166AB0}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="116.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="238" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="221" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L30" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{B104CBFF-EA83-5C46-8B08-05ACCCE41B78}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{0AE2ED63-2753-1A49-94D8-7A671BA2288A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC12D51-08B9-954E-BC3C-4846818D6EE1}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
-    </sheetView>
-    <sheetView topLeftCell="I1" workbookViewId="1">
-      <selection activeCell="M24" sqref="A1:M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3227,82 +6523,104 @@
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" customWidth="1"/>
     <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="99.33203125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="99.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3</v>
+      </c>
       <c r="L2" s="3" cm="1">
         <f t="array" ref="L2">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>3.4999999999999996</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>4</v>
       </c>
       <c r="D3" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
@@ -3311,40 +6629,40 @@
         <v>4</v>
       </c>
       <c r="G3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3">
         <v>4</v>
       </c>
       <c r="J3" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" s="3">
         <v>3</v>
       </c>
       <c r="L3" s="3" cm="1">
         <f t="array" ref="L3">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>3.4999999999999996</v>
+        <v>3.0999999999999996</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -3353,10 +6671,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="3">
         <v>4</v>
@@ -3369,41 +6687,63 @@
       </c>
       <c r="L4" s="3" cm="1">
         <f t="array" ref="L4">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>3.0999999999999996</v>
+        <v>3.4999999999999996</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
       <c r="L5" s="3" cm="1">
         <f t="array" ref="L5">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>3.5</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
@@ -3415,7 +6755,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3">
         <v>4</v>
@@ -3427,34 +6767,59 @@
         <v>4</v>
       </c>
       <c r="K6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" s="3" cm="1">
         <f t="array" ref="L6">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>3.4999999999999996</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4</v>
+      </c>
+      <c r="L7" s="3" cm="1">
+        <f t="array" ref="L7">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
+        <v>3.9</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>71</v>
       </c>
@@ -3471,32 +6836,32 @@
         <v>4</v>
       </c>
       <c r="F8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3">
         <v>4</v>
       </c>
       <c r="I8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K8" s="3">
         <v>4</v>
       </c>
       <c r="L8" s="3" cm="1">
         <f t="array" ref="L8">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>3.9999999999999996</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -3513,7 +6878,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3">
         <v>4</v>
@@ -3532,15 +6897,15 @@
       </c>
       <c r="L9" s="3" cm="1">
         <f t="array" ref="L9">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>3.9</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" s="3">
         <v>4</v>
@@ -3558,307 +6923,111 @@
         <v>3</v>
       </c>
       <c r="G10" s="3">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>3</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2</v>
-      </c>
-      <c r="K10" s="3">
-        <v>4</v>
       </c>
       <c r="L10" s="3" cm="1">
         <f t="array" ref="L10">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>3.4000000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>4</v>
+      </c>
       <c r="L11" s="3" cm="1">
         <f t="array" ref="L11">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>4</v>
+      </c>
       <c r="L12" s="3" cm="1">
         <f t="array" ref="L12">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3" cm="1">
-        <f t="array" ref="L13">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3" cm="1">
-        <f t="array" ref="L14">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" cm="1">
-        <f t="array" ref="L15">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" cm="1">
-        <f t="array" ref="L16">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3" cm="1">
-        <f t="array" ref="L17">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3" cm="1">
-        <f t="array" ref="L18">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3" cm="1">
-        <f t="array" ref="L19">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3" cm="1">
-        <f t="array" ref="L20">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3" cm="1">
-        <f t="array" ref="L21">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3" cm="1">
-        <f t="array" ref="L22">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3" cm="1">
-        <f t="array" ref="L23">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3" cm="1">
-        <f t="array" ref="L24">SUM(Table2[[#This Row],[Summary]:[Transcript]]/10)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="3"/>
+        <v>2.9</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>275</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3868,270 +7037,263 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FC1BB5-B301-5D4C-9D79-2DCA98E3A561}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="47" style="7" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="7"/>
-    <col min="9" max="9" width="45.1640625" style="7" customWidth="1"/>
-    <col min="10" max="12" width="10.83203125" style="7"/>
-    <col min="13" max="13" width="29.6640625" style="7" customWidth="1"/>
-    <col min="14" max="17" width="10.83203125" style="7"/>
-    <col min="18" max="18" width="14.6640625" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="45.1640625" customWidth="1"/>
+    <col min="13" max="13" width="29.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>213</v>
+      <c r="A14" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>4</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>215</v>
+      <c r="A15" s="8">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>3</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>217</v>
+      <c r="B16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>219</v>
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>221</v>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>0</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>223</v>
+      <c r="B19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4140,4 +7302,398 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBAC825-ECB2-2442-87FB-4351685B35AE}">
+  <dimension ref="A1:S35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="O2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>278</v>
+      </c>
+      <c r="S2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="O3" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>279</v>
+      </c>
+      <c r="S3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="O4" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>280</v>
+      </c>
+      <c r="S4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="O5" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>281</v>
+      </c>
+      <c r="S5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="O6" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>282</v>
+      </c>
+      <c r="S6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>266</v>
+      </c>
+      <c r="O7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>287</v>
+      </c>
+      <c r="S7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>267</v>
+      </c>
+      <c r="O8" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>299</v>
+      </c>
+      <c r="S8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="O9" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>295</v>
+      </c>
+      <c r="S9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>277</v>
+      </c>
+      <c r="O10" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>341</v>
+      </c>
+      <c r="S10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>283</v>
+      </c>
+      <c r="O11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>300</v>
+      </c>
+      <c r="S11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>306</v>
+      </c>
+      <c r="S12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O13" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>308</v>
+      </c>
+      <c r="S13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>332</v>
+      </c>
+      <c r="S14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>333</v>
+      </c>
+      <c r="S15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>334</v>
+      </c>
+      <c r="S16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="O17" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>336</v>
+      </c>
+      <c r="S17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="O18" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>338</v>
+      </c>
+      <c r="S18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>452</v>
+      </c>
+      <c r="O19" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>453</v>
+      </c>
+      <c r="O20" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>455</v>
+      </c>
+      <c r="O21" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>454</v>
+      </c>
+      <c r="O22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>456</v>
+      </c>
+      <c r="O23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C309AE-F8AD-5B45-9095-5F18F0C1C9D6}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="197.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>